--- a/Table.xlsx
+++ b/Table.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing.Huang\Videos\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0649B40D-EA58-4181-9172-BAC44FAA8267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="範例1_1" sheetId="1" r:id="rId1"/>
     <sheet name="範例1_2" sheetId="2" r:id="rId2"/>
     <sheet name="範例1_3" sheetId="3" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>Operation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,13 +111,17 @@
   </si>
   <si>
     <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -293,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +354,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -357,15 +372,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,6 +379,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G5:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -848,7 +857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="G4:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -894,11 +903,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="L4:BF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="BC26" sqref="BC26"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1143,40 +1152,40 @@
       <c r="BF6" s="15"/>
     </row>
     <row r="7" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="18" t="s">
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="20"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="23"/>
       <c r="AE7" s="15"/>
       <c r="AF7" s="15"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
-      <c r="AI7" s="21" t="s">
+      <c r="AI7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="23"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="20"/>
       <c r="AN7" s="24" t="s">
         <v>2</v>
       </c>
@@ -1347,22 +1356,22 @@
       <c r="BF10" s="15"/>
     </row>
     <row r="11" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="21" t="s">
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="23"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="20"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="24" t="s">
         <v>2</v>
@@ -1385,20 +1394,20 @@
       <c r="AO11" s="15"/>
       <c r="AP11" s="15"/>
       <c r="AQ11" s="15"/>
-      <c r="AR11" s="18" t="s">
+      <c r="AR11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="19"/>
-      <c r="BB11" s="19"/>
-      <c r="BC11" s="20"/>
+      <c r="AS11" s="22"/>
+      <c r="AT11" s="22"/>
+      <c r="AU11" s="22"/>
+      <c r="AV11" s="22"/>
+      <c r="AW11" s="22"/>
+      <c r="AX11" s="22"/>
+      <c r="AY11" s="22"/>
+      <c r="AZ11" s="22"/>
+      <c r="BA11" s="22"/>
+      <c r="BB11" s="22"/>
+      <c r="BC11" s="23"/>
       <c r="BD11" s="15"/>
       <c r="BE11" s="15"/>
       <c r="BF11" s="15"/>
@@ -1551,12 +1560,12 @@
       <c r="BF14" s="15"/>
     </row>
     <row r="15" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
       <c r="P15" s="24" t="s">
         <v>17</v>
       </c>
@@ -1568,29 +1577,29 @@
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
       <c r="X15" s="26"/>
-      <c r="Y15" s="21" t="s">
+      <c r="Y15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="18" t="s">
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="20"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="23"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="15"/>
       <c r="AT15" s="15"/>
@@ -1609,11 +1618,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AI7:AM7"/>
-    <mergeCell ref="AI15:AQ15"/>
-    <mergeCell ref="Y11:AE11"/>
-    <mergeCell ref="AR11:BC11"/>
-    <mergeCell ref="AN7:BF7"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="L15:O15"/>
@@ -1621,6 +1625,164 @@
     <mergeCell ref="P11:W11"/>
     <mergeCell ref="P15:X15"/>
     <mergeCell ref="Y15:AH15"/>
+    <mergeCell ref="AI7:AM7"/>
+    <mergeCell ref="AI15:AQ15"/>
+    <mergeCell ref="Y11:AE11"/>
+    <mergeCell ref="AR11:BC11"/>
+    <mergeCell ref="AN7:BF7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8C533-5716-4EF4-BB56-40998014E404}">
+  <dimension ref="L4:U11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="15" width="2.77734375" style="7"/>
+    <col min="16" max="21" width="4.33203125" style="7" customWidth="1"/>
+    <col min="22" max="44" width="4.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="2.77734375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>2</v>
+      </c>
+      <c r="R4" s="17">
+        <v>3</v>
+      </c>
+      <c r="S4" s="17">
+        <v>4</v>
+      </c>
+      <c r="T4" s="17">
+        <v>5</v>
+      </c>
+      <c r="U4" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+    </row>
+    <row r="6" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+    </row>
+    <row r="7" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="15"/>
+      <c r="T7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="15"/>
+    </row>
+    <row r="8" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+    </row>
+    <row r="9" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+    </row>
+    <row r="10" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+    </row>
+    <row r="11" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U11" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L11:O11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0649B40D-EA58-4181-9172-BAC44FAA8267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C46F97-A006-4447-9522-52C2A77DF3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28530" yWindow="0" windowWidth="29070" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="範例1_1" sheetId="1" r:id="rId1"/>
@@ -28,17 +28,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
   <si>
     <t>Operation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Job 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,18 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Job 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Job 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +99,10 @@
   </si>
   <si>
     <t>Job3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,35 +342,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,33 +669,33 @@
   <sheetData>
     <row r="5" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G5" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="M5" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="4">
         <v>8</v>
@@ -719,21 +707,21 @@
         <v>5</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="16" t="s">
-        <v>8</v>
-      </c>
       <c r="P6" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4">
         <v>15</v>
@@ -745,21 +733,21 @@
         <v>12</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="16" t="s">
         <v>6</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="4">
         <v>9</v>
@@ -771,35 +759,35 @@
         <v>19</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G13" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -807,21 +795,21 @@
     </row>
     <row r="15" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G16" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -829,16 +817,16 @@
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="J18" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="7:10" x14ac:dyDescent="0.3">
@@ -904,156 +892,198 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="L4:BF15"/>
+  <dimension ref="L4:BT19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="15" width="2.77734375" style="7"/>
-    <col min="16" max="58" width="4.33203125" style="7" customWidth="1"/>
-    <col min="59" max="81" width="4.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="72" width="4.77734375" style="7" customWidth="1"/>
+    <col min="73" max="81" width="4.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="82" max="16384" width="2.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="4" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="14"/>
+    <row r="4" spans="12:72" x14ac:dyDescent="0.3">
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4">
         <v>2</v>
       </c>
-      <c r="R4" s="4">
-        <v>3</v>
-      </c>
-      <c r="S4" s="4">
+      <c r="Q4" s="18">
         <v>4</v>
       </c>
-      <c r="T4" s="4">
-        <v>5</v>
-      </c>
-      <c r="U4" s="4">
+      <c r="R4" s="18">
         <v>6</v>
       </c>
-      <c r="V4" s="4">
-        <v>7</v>
-      </c>
-      <c r="W4" s="4">
+      <c r="S4" s="18">
         <v>8</v>
       </c>
-      <c r="X4" s="4">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="4">
+      <c r="T4" s="18">
         <v>10</v>
       </c>
-      <c r="Z4" s="4">
-        <v>11</v>
-      </c>
-      <c r="AA4" s="4">
+      <c r="U4" s="18">
         <v>12</v>
       </c>
-      <c r="AB4" s="4">
-        <v>13</v>
-      </c>
-      <c r="AC4" s="4">
+      <c r="V4" s="18">
         <v>14</v>
       </c>
-      <c r="AD4" s="4">
-        <v>15</v>
-      </c>
-      <c r="AE4" s="4">
+      <c r="W4" s="18">
         <v>16</v>
       </c>
-      <c r="AF4" s="4">
-        <v>17</v>
-      </c>
-      <c r="AG4" s="4">
+      <c r="X4" s="18">
         <v>18</v>
       </c>
-      <c r="AH4" s="4">
-        <v>19</v>
-      </c>
-      <c r="AI4" s="4">
+      <c r="Y4" s="18">
         <v>20</v>
       </c>
-      <c r="AJ4" s="4">
-        <v>21</v>
-      </c>
-      <c r="AK4" s="4">
+      <c r="Z4" s="18">
         <v>22</v>
       </c>
-      <c r="AL4" s="4">
-        <v>23</v>
-      </c>
-      <c r="AM4" s="4">
+      <c r="AA4" s="18">
         <v>24</v>
       </c>
-      <c r="AN4" s="4">
-        <v>25</v>
-      </c>
-      <c r="AO4" s="4">
+      <c r="AB4" s="18">
         <v>26</v>
       </c>
-      <c r="AP4" s="4">
-        <v>27</v>
-      </c>
-      <c r="AQ4" s="4">
+      <c r="AC4" s="18">
         <v>28</v>
       </c>
-      <c r="AR4" s="4">
-        <v>29</v>
-      </c>
-      <c r="AS4" s="4">
+      <c r="AD4" s="18">
         <v>30</v>
       </c>
-      <c r="AT4" s="4">
-        <v>31</v>
-      </c>
-      <c r="AU4" s="4">
+      <c r="AE4" s="18">
         <v>32</v>
       </c>
-      <c r="AV4" s="4">
-        <v>33</v>
-      </c>
-      <c r="AW4" s="4">
+      <c r="AF4" s="18">
         <v>34</v>
       </c>
-      <c r="AX4" s="4">
-        <v>35</v>
-      </c>
-      <c r="AY4" s="4">
+      <c r="AG4" s="18">
         <v>36</v>
       </c>
-      <c r="AZ4" s="4">
-        <v>37</v>
-      </c>
-      <c r="BA4" s="4">
+      <c r="AH4" s="18">
         <v>38</v>
       </c>
-      <c r="BB4" s="4">
-        <v>39</v>
-      </c>
-      <c r="BC4" s="4">
+      <c r="AI4" s="18">
         <v>40</v>
       </c>
-      <c r="BD4" s="4">
-        <v>41</v>
-      </c>
-      <c r="BE4" s="4">
+      <c r="AJ4" s="18">
         <v>42</v>
       </c>
-      <c r="BF4" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="AK4" s="18">
+        <v>44</v>
+      </c>
+      <c r="AL4" s="18">
+        <v>46</v>
+      </c>
+      <c r="AM4" s="18">
+        <v>48</v>
+      </c>
+      <c r="AN4" s="18">
+        <v>50</v>
+      </c>
+      <c r="AO4" s="18">
+        <v>52</v>
+      </c>
+      <c r="AP4" s="18">
+        <v>54</v>
+      </c>
+      <c r="AQ4" s="18">
+        <v>56</v>
+      </c>
+      <c r="AR4" s="18">
+        <v>58</v>
+      </c>
+      <c r="AS4" s="18">
+        <v>60</v>
+      </c>
+      <c r="AT4" s="18">
+        <v>62</v>
+      </c>
+      <c r="AU4" s="18">
+        <v>64</v>
+      </c>
+      <c r="AV4" s="18">
+        <v>66</v>
+      </c>
+      <c r="AW4" s="18">
+        <v>68</v>
+      </c>
+      <c r="AX4" s="18">
+        <v>70</v>
+      </c>
+      <c r="AY4" s="18">
+        <v>72</v>
+      </c>
+      <c r="AZ4" s="18">
+        <v>74</v>
+      </c>
+      <c r="BA4" s="18">
+        <v>76</v>
+      </c>
+      <c r="BB4" s="18">
+        <v>78</v>
+      </c>
+      <c r="BC4" s="18">
+        <v>80</v>
+      </c>
+      <c r="BD4" s="18">
+        <v>82</v>
+      </c>
+      <c r="BE4" s="18">
+        <v>84</v>
+      </c>
+      <c r="BF4" s="18">
+        <v>86</v>
+      </c>
+      <c r="BG4" s="18">
+        <v>88</v>
+      </c>
+      <c r="BH4" s="18">
+        <v>90</v>
+      </c>
+      <c r="BI4" s="18">
+        <v>92</v>
+      </c>
+      <c r="BJ4" s="18">
+        <v>94</v>
+      </c>
+      <c r="BK4" s="18">
+        <v>96</v>
+      </c>
+      <c r="BL4" s="18">
+        <v>98</v>
+      </c>
+      <c r="BM4" s="18">
+        <v>100</v>
+      </c>
+      <c r="BN4" s="18">
+        <v>102</v>
+      </c>
+      <c r="BO4" s="18">
+        <v>104</v>
+      </c>
+      <c r="BP4" s="18">
+        <v>106</v>
+      </c>
+      <c r="BQ4" s="18">
+        <v>108</v>
+      </c>
+      <c r="BR4" s="18">
+        <v>110</v>
+      </c>
+      <c r="BS4" s="18">
+        <v>112</v>
+      </c>
+      <c r="BT4" s="18">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="12:72" x14ac:dyDescent="0.3">
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -1101,8 +1131,22 @@
       <c r="BD5" s="15"/>
       <c r="BE5" s="15"/>
       <c r="BF5" s="15"/>
-    </row>
-    <row r="6" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="BG5" s="15"/>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="15"/>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="15"/>
+      <c r="BP5" s="15"/>
+      <c r="BQ5" s="15"/>
+      <c r="BR5" s="15"/>
+      <c r="BS5" s="15"/>
+      <c r="BT5" s="15"/>
+    </row>
+    <row r="6" spans="12:72" x14ac:dyDescent="0.3">
       <c r="L6" s="11"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -1150,65 +1194,87 @@
       <c r="BD6" s="15"/>
       <c r="BE6" s="15"/>
       <c r="BF6" s="15"/>
-    </row>
-    <row r="7" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L7" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="23"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15"/>
+      <c r="BO6" s="15"/>
+      <c r="BP6" s="15"/>
+      <c r="BQ6" s="15"/>
+      <c r="BR6" s="15"/>
+      <c r="BS6" s="15"/>
+      <c r="BT6" s="15"/>
+    </row>
+    <row r="7" spans="12:72" x14ac:dyDescent="0.3">
+      <c r="L7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
       <c r="AF7" s="15"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
-      <c r="AI7" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
-      <c r="BD7" s="25"/>
-      <c r="BE7" s="25"/>
-      <c r="BF7" s="26"/>
-    </row>
-    <row r="8" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15"/>
+      <c r="BO7" s="15"/>
+      <c r="BP7" s="15"/>
+      <c r="BQ7" s="15"/>
+      <c r="BR7" s="15"/>
+      <c r="BS7" s="15"/>
+      <c r="BT7" s="15"/>
+    </row>
+    <row r="8" spans="12:72" x14ac:dyDescent="0.3">
       <c r="L8" s="11"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -1256,8 +1322,22 @@
       <c r="BD8" s="15"/>
       <c r="BE8" s="15"/>
       <c r="BF8" s="15"/>
-    </row>
-    <row r="9" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="15"/>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="15"/>
+      <c r="BO8" s="15"/>
+      <c r="BP8" s="15"/>
+      <c r="BQ8" s="15"/>
+      <c r="BR8" s="15"/>
+      <c r="BS8" s="15"/>
+      <c r="BT8" s="15"/>
+    </row>
+    <row r="9" spans="12:72" x14ac:dyDescent="0.3">
       <c r="L9" s="11"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -1305,8 +1385,22 @@
       <c r="BD9" s="15"/>
       <c r="BE9" s="15"/>
       <c r="BF9" s="15"/>
-    </row>
-    <row r="10" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15"/>
+      <c r="BO9" s="15"/>
+      <c r="BP9" s="15"/>
+      <c r="BQ9" s="15"/>
+      <c r="BR9" s="15"/>
+      <c r="BS9" s="15"/>
+      <c r="BT9" s="15"/>
+    </row>
+    <row r="10" spans="12:72" x14ac:dyDescent="0.3">
       <c r="L10" s="11"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -1354,34 +1448,44 @@
       <c r="BD10" s="15"/>
       <c r="BE10" s="15"/>
       <c r="BF10" s="15"/>
-    </row>
-    <row r="11" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="20"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="15"/>
+      <c r="BO10" s="15"/>
+      <c r="BP10" s="15"/>
+      <c r="BQ10" s="15"/>
+      <c r="BR10" s="15"/>
+      <c r="BS10" s="15"/>
+      <c r="BT10" s="15"/>
+    </row>
+    <row r="11" spans="12:72" x14ac:dyDescent="0.3">
+      <c r="L11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="26"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
       <c r="AH11" s="15"/>
@@ -1394,25 +1498,37 @@
       <c r="AO11" s="15"/>
       <c r="AP11" s="15"/>
       <c r="AQ11" s="15"/>
-      <c r="AR11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="22"/>
-      <c r="AT11" s="22"/>
-      <c r="AU11" s="22"/>
-      <c r="AV11" s="22"/>
-      <c r="AW11" s="22"/>
-      <c r="AX11" s="22"/>
-      <c r="AY11" s="22"/>
-      <c r="AZ11" s="22"/>
-      <c r="BA11" s="22"/>
-      <c r="BB11" s="22"/>
-      <c r="BC11" s="23"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="15"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
       <c r="BD11" s="15"/>
       <c r="BE11" s="15"/>
       <c r="BF11" s="15"/>
-    </row>
-    <row r="12" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="15"/>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
+      <c r="BL11" s="15"/>
+      <c r="BM11" s="15"/>
+      <c r="BN11" s="15"/>
+      <c r="BO11" s="15"/>
+      <c r="BP11" s="15"/>
+      <c r="BQ11" s="15"/>
+      <c r="BR11" s="15"/>
+      <c r="BS11" s="15"/>
+      <c r="BT11" s="15"/>
+    </row>
+    <row r="12" spans="12:72" x14ac:dyDescent="0.3">
       <c r="L12" s="11"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -1460,8 +1576,22 @@
       <c r="BD12" s="15"/>
       <c r="BE12" s="15"/>
       <c r="BF12" s="15"/>
-    </row>
-    <row r="13" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
+      <c r="BL12" s="15"/>
+      <c r="BM12" s="15"/>
+      <c r="BN12" s="15"/>
+      <c r="BO12" s="15"/>
+      <c r="BP12" s="15"/>
+      <c r="BQ12" s="15"/>
+      <c r="BR12" s="15"/>
+      <c r="BS12" s="15"/>
+      <c r="BT12" s="15"/>
+    </row>
+    <row r="13" spans="12:72" x14ac:dyDescent="0.3">
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -1509,8 +1639,22 @@
       <c r="BD13" s="15"/>
       <c r="BE13" s="15"/>
       <c r="BF13" s="15"/>
-    </row>
-    <row r="14" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="15"/>
+      <c r="BL13" s="15"/>
+      <c r="BM13" s="15"/>
+      <c r="BN13" s="15"/>
+      <c r="BO13" s="15"/>
+      <c r="BP13" s="15"/>
+      <c r="BQ13" s="15"/>
+      <c r="BR13" s="15"/>
+      <c r="BS13" s="15"/>
+      <c r="BT13" s="15"/>
+    </row>
+    <row r="14" spans="12:72" x14ac:dyDescent="0.3">
       <c r="L14" s="11"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -1558,48 +1702,56 @@
       <c r="BD14" s="15"/>
       <c r="BE14" s="15"/>
       <c r="BF14" s="15"/>
-    </row>
-    <row r="15" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L15" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="22"/>
-      <c r="AM15" s="22"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="23"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="15"/>
+      <c r="BO14" s="15"/>
+      <c r="BP14" s="15"/>
+      <c r="BQ14" s="15"/>
+      <c r="BR14" s="15"/>
+      <c r="BS14" s="15"/>
+      <c r="BT14" s="15"/>
+    </row>
+    <row r="15" spans="12:72" x14ac:dyDescent="0.3">
+      <c r="L15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
       <c r="AR15" s="15"/>
       <c r="AS15" s="15"/>
       <c r="AT15" s="15"/>
@@ -1615,21 +1767,281 @@
       <c r="BD15" s="15"/>
       <c r="BE15" s="15"/>
       <c r="BF15" s="15"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="15"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="15"/>
+      <c r="BL15" s="15"/>
+      <c r="BM15" s="15"/>
+      <c r="BN15" s="15"/>
+      <c r="BO15" s="15"/>
+      <c r="BP15" s="15"/>
+      <c r="BQ15" s="15"/>
+      <c r="BR15" s="15"/>
+      <c r="BS15" s="15"/>
+      <c r="BT15" s="15"/>
+    </row>
+    <row r="16" spans="12:72" x14ac:dyDescent="0.3">
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
+      <c r="AO16" s="15"/>
+      <c r="AP16" s="15"/>
+      <c r="AQ16" s="15"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="15"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="15"/>
+      <c r="BC16" s="15"/>
+      <c r="BD16" s="15"/>
+      <c r="BE16" s="15"/>
+      <c r="BF16" s="15"/>
+      <c r="BG16" s="15"/>
+      <c r="BH16" s="15"/>
+      <c r="BI16" s="15"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="15"/>
+      <c r="BL16" s="15"/>
+      <c r="BM16" s="15"/>
+      <c r="BN16" s="15"/>
+      <c r="BO16" s="15"/>
+      <c r="BP16" s="15"/>
+      <c r="BQ16" s="15"/>
+      <c r="BR16" s="15"/>
+      <c r="BS16" s="15"/>
+      <c r="BT16" s="15"/>
+    </row>
+    <row r="17" spans="12:72" x14ac:dyDescent="0.3">
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
+      <c r="AZ17" s="15"/>
+      <c r="BA17" s="15"/>
+      <c r="BB17" s="15"/>
+      <c r="BC17" s="15"/>
+      <c r="BD17" s="15"/>
+      <c r="BE17" s="15"/>
+      <c r="BF17" s="15"/>
+      <c r="BG17" s="15"/>
+      <c r="BH17" s="15"/>
+      <c r="BI17" s="15"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="15"/>
+      <c r="BL17" s="15"/>
+      <c r="BM17" s="15"/>
+      <c r="BN17" s="15"/>
+      <c r="BO17" s="15"/>
+      <c r="BP17" s="15"/>
+      <c r="BQ17" s="15"/>
+      <c r="BR17" s="15"/>
+      <c r="BS17" s="15"/>
+      <c r="BT17" s="15"/>
+    </row>
+    <row r="18" spans="12:72" x14ac:dyDescent="0.3">
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="15"/>
+      <c r="BE18" s="15"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="15"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="15"/>
+      <c r="BK18" s="15"/>
+      <c r="BL18" s="15"/>
+      <c r="BM18" s="15"/>
+      <c r="BN18" s="15"/>
+      <c r="BO18" s="15"/>
+      <c r="BP18" s="15"/>
+      <c r="BQ18" s="15"/>
+      <c r="BR18" s="15"/>
+      <c r="BS18" s="15"/>
+      <c r="BT18" s="15"/>
+    </row>
+    <row r="19" spans="12:72" x14ac:dyDescent="0.3">
+      <c r="L19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+      <c r="AU19" s="15"/>
+      <c r="AV19" s="15"/>
+      <c r="AW19" s="15"/>
+      <c r="AX19" s="15"/>
+      <c r="AY19" s="15"/>
+      <c r="AZ19" s="15"/>
+      <c r="BA19" s="15"/>
+      <c r="BB19" s="15"/>
+      <c r="BC19" s="15"/>
+      <c r="BD19" s="15"/>
+      <c r="BE19" s="15"/>
+      <c r="BF19" s="15"/>
+      <c r="BG19" s="15"/>
+      <c r="BH19" s="15"/>
+      <c r="BI19" s="15"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="15"/>
+      <c r="BL19" s="15"/>
+      <c r="BM19" s="15"/>
+      <c r="BN19" s="15"/>
+      <c r="BO19" s="15"/>
+      <c r="BP19" s="15"/>
+      <c r="BQ19" s="15"/>
+      <c r="BR19" s="15"/>
+      <c r="BS19" s="15"/>
+      <c r="BT19" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="4">
+    <mergeCell ref="L19:O19"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="P11:W11"/>
-    <mergeCell ref="P15:X15"/>
-    <mergeCell ref="Y15:AH15"/>
-    <mergeCell ref="AI7:AM7"/>
-    <mergeCell ref="AI15:AQ15"/>
-    <mergeCell ref="Y11:AE11"/>
-    <mergeCell ref="AR11:BC11"/>
-    <mergeCell ref="AN7:BF7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1640,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC8C533-5716-4EF4-BB56-40998014E404}">
   <dimension ref="L4:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L4" sqref="L4:U11"/>
     </sheetView>
   </sheetViews>
@@ -1701,22 +2113,22 @@
       <c r="U6" s="15"/>
     </row>
     <row r="7" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L7" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="20"/>
+      <c r="L7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="24"/>
       <c r="R7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="S7" s="15"/>
       <c r="T7" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U7" s="15"/>
     </row>
@@ -1757,24 +2169,24 @@
       <c r="U10" s="15"/>
     </row>
     <row r="11" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L11" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="21" t="s">
+      <c r="L11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="22"/>
       <c r="S11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="U11" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="T11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>O1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,34 @@
   </si>
   <si>
     <t>End</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -372,9 +400,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,6 +444,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -721,154 +764,154 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:53" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="11">
         <v>4</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="11">
         <v>4</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="11">
         <v>2</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="11">
         <v>6</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="11">
         <v>3</v>
       </c>
-      <c r="W5" s="12">
+      <c r="W5" s="11">
         <v>4</v>
       </c>
-      <c r="X5" s="12">
+      <c r="X5" s="11">
         <v>5</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="Y5" s="11">
         <v>6</v>
       </c>
-      <c r="Z5" s="12">
+      <c r="Z5" s="11">
         <v>1</v>
       </c>
-      <c r="AA5" s="12">
+      <c r="AA5" s="11">
         <v>1</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="11">
         <v>5</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC5" s="11">
         <v>5</v>
       </c>
-      <c r="AD5" s="12">
+      <c r="AD5" s="11">
         <v>1</v>
       </c>
-      <c r="AE5" s="12">
+      <c r="AE5" s="11">
         <v>4</v>
       </c>
-      <c r="AF5" s="12">
+      <c r="AF5" s="11">
         <v>6</v>
       </c>
-      <c r="AG5" s="12">
+      <c r="AG5" s="11">
         <v>1</v>
       </c>
-      <c r="AH5" s="12">
+      <c r="AH5" s="11">
         <v>3</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AI5" s="11">
         <v>1</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AJ5" s="11">
         <v>5</v>
       </c>
-      <c r="AK5" s="12">
+      <c r="AK5" s="11">
         <v>3</v>
       </c>
-      <c r="AL5" s="12">
+      <c r="AL5" s="11">
         <v>2</v>
       </c>
-      <c r="AM5" s="12">
+      <c r="AM5" s="11">
         <v>2</v>
       </c>
-      <c r="AN5" s="12">
+      <c r="AN5" s="11">
         <v>6</v>
       </c>
-      <c r="AO5" s="12">
+      <c r="AO5" s="11">
         <v>6</v>
       </c>
-      <c r="AP5" s="12">
+      <c r="AP5" s="11">
         <v>3</v>
       </c>
-      <c r="AQ5" s="12">
+      <c r="AQ5" s="11">
         <v>1</v>
       </c>
-      <c r="AR5" s="12">
+      <c r="AR5" s="11">
         <v>3</v>
       </c>
-      <c r="AS5" s="12">
+      <c r="AS5" s="11">
         <v>4</v>
       </c>
-      <c r="AT5" s="12">
+      <c r="AT5" s="11">
         <v>2</v>
       </c>
-      <c r="AU5" s="12">
+      <c r="AU5" s="11">
         <v>6</v>
       </c>
-      <c r="AV5" s="12">
+      <c r="AV5" s="11">
         <v>3</v>
       </c>
-      <c r="AW5" s="12">
+      <c r="AW5" s="11">
         <v>5</v>
       </c>
-      <c r="AX5" s="12">
+      <c r="AX5" s="11">
         <v>2</v>
       </c>
-      <c r="AY5" s="12">
+      <c r="AY5" s="11">
         <v>2</v>
       </c>
-      <c r="AZ5" s="12">
+      <c r="AZ5" s="11">
         <v>5</v>
       </c>
-      <c r="BA5" s="12">
+      <c r="BA5" s="11">
         <v>4</v>
       </c>
     </row>
@@ -876,54 +919,54 @@
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>6</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>7</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>3</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>6</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="2:53" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>8</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>5</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>10</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>10</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>10</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>4</v>
       </c>
     </row>
@@ -931,31 +974,31 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>8</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>9</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>7</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -975,54 +1018,54 @@
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>5</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>5</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>8</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>9</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
     </row>
     <row r="10" spans="2:53" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>9</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>3</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>5</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>4</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>3</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1030,31 +1073,31 @@
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>3</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>3</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>9</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>10</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>4</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>1</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -1071,57 +1114,57 @@
       </c>
     </row>
     <row r="12" spans="2:53" x14ac:dyDescent="0.3">
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="14" spans="2:53" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1129,118 +1172,118 @@
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>4</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>6</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>5</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="2:53" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>3</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>5</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>6</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>1</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>4</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>3</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>4</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>6</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>1</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="8">
         <v>5</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>2</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>1</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>3</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>4</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>5</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>6</v>
       </c>
     </row>
@@ -1248,22 +1291,22 @@
       <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>3</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>2</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>5</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>6</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>1</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>4</v>
       </c>
     </row>
@@ -1271,22 +1314,22 @@
       <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>2</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>4</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>6</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>1</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <v>5</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>3</v>
       </c>
     </row>
@@ -1299,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L4:CF27"/>
+  <dimension ref="L4:CF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM33" sqref="AM33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP35" sqref="AP35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1313,12 +1356,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="12:84" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
       <c r="P4" s="9">
         <v>1</v>
       </c>
@@ -1528,2571 +1571,2609 @@
       </c>
     </row>
     <row r="5" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="8"/>
-      <c r="BK5" s="8"/>
-      <c r="BL5" s="8"/>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
-      <c r="BO5" s="8"/>
-      <c r="BP5" s="8"/>
-      <c r="BQ5" s="8"/>
-      <c r="BR5" s="8"/>
-      <c r="BS5" s="8"/>
-      <c r="BT5" s="8"/>
-      <c r="BU5" s="8"/>
-      <c r="BV5" s="8"/>
-      <c r="BW5" s="8"/>
-      <c r="BX5" s="8"/>
-      <c r="BY5" s="8"/>
-      <c r="BZ5" s="8"/>
-      <c r="CA5" s="8"/>
-      <c r="CB5" s="8"/>
-      <c r="CC5" s="8"/>
-      <c r="CD5" s="8"/>
-      <c r="CE5" s="8"/>
-      <c r="CF5" s="8"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9"/>
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="9"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="9"/>
+      <c r="BT5" s="9"/>
+      <c r="BU5" s="9"/>
+      <c r="BV5" s="9"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="9"/>
+      <c r="BY5" s="9"/>
+      <c r="BZ5" s="9"/>
+      <c r="CA5" s="9"/>
+      <c r="CB5" s="9"/>
+      <c r="CC5" s="9"/>
+      <c r="CD5" s="9"/>
+      <c r="CE5" s="9"/>
+      <c r="CF5" s="9"/>
     </row>
     <row r="6" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="8"/>
-      <c r="BK6" s="8"/>
-      <c r="BL6" s="8"/>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="8"/>
-      <c r="BQ6" s="8"/>
-      <c r="BR6" s="8"/>
-      <c r="BS6" s="8"/>
-      <c r="BT6" s="8"/>
-      <c r="BU6" s="8"/>
-      <c r="BV6" s="8"/>
-      <c r="BW6" s="8"/>
-      <c r="BX6" s="8"/>
-      <c r="BY6" s="8"/>
-      <c r="BZ6" s="8"/>
-      <c r="CA6" s="8"/>
-      <c r="CB6" s="8"/>
-      <c r="CC6" s="8"/>
-      <c r="CD6" s="8"/>
-      <c r="CE6" s="8"/>
-      <c r="CF6" s="8"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="9"/>
+      <c r="BM6" s="9"/>
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="9"/>
+      <c r="BP6" s="9"/>
+      <c r="BQ6" s="9"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="9"/>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="9"/>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
+      <c r="BZ6" s="9"/>
+      <c r="CA6" s="9"/>
+      <c r="CB6" s="9"/>
+      <c r="CC6" s="9"/>
+      <c r="CD6" s="9"/>
+      <c r="CE6" s="9"/>
+      <c r="CF6" s="9"/>
     </row>
     <row r="7" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="10">
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="9">
         <v>1</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <v>2</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="9">
         <v>3</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="9">
         <v>4</v>
       </c>
-      <c r="T7" s="10">
+      <c r="T7" s="9">
         <v>5</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>6</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <v>7</v>
       </c>
-      <c r="W7" s="10">
+      <c r="W7" s="9">
         <v>8</v>
       </c>
-      <c r="X7" s="10">
+      <c r="X7" s="9">
         <v>9</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="9">
         <v>10</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="Z7" s="9">
         <v>11</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AA7" s="9">
         <v>12</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="9">
         <v>13</v>
       </c>
-      <c r="AC7" s="10">
+      <c r="AC7" s="9">
         <v>14</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AD7" s="9">
         <v>15</v>
       </c>
-      <c r="AE7" s="10">
+      <c r="AE7" s="9">
         <v>16</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AF7" s="9">
         <v>17</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AG7" s="9">
         <v>18</v>
       </c>
-      <c r="AH7" s="10">
+      <c r="AH7" s="9">
         <v>19</v>
       </c>
-      <c r="AI7" s="10">
+      <c r="AI7" s="9">
         <v>20</v>
       </c>
-      <c r="AJ7" s="10">
+      <c r="AJ7" s="9">
         <v>21</v>
       </c>
-      <c r="AK7" s="10">
+      <c r="AK7" s="9">
         <v>22</v>
       </c>
-      <c r="AL7" s="10">
+      <c r="AL7" s="9">
         <v>23</v>
       </c>
-      <c r="AM7" s="10">
+      <c r="AM7" s="9">
         <v>24</v>
       </c>
-      <c r="AN7" s="10">
+      <c r="AN7" s="9">
         <v>25</v>
       </c>
-      <c r="AO7" s="10">
+      <c r="AO7" s="9">
         <v>26</v>
       </c>
-      <c r="AP7" s="10">
+      <c r="AP7" s="9">
         <v>27</v>
       </c>
-      <c r="AQ7" s="10">
+      <c r="AQ7" s="9">
         <v>28</v>
       </c>
-      <c r="AR7" s="10">
+      <c r="AR7" s="9">
         <v>29</v>
       </c>
-      <c r="AS7" s="10">
+      <c r="AS7" s="9">
         <v>30</v>
       </c>
-      <c r="AT7" s="10">
+      <c r="AT7" s="9">
         <v>31</v>
       </c>
-      <c r="AU7" s="10">
+      <c r="AU7" s="9">
         <v>32</v>
       </c>
-      <c r="AV7" s="10">
+      <c r="AV7" s="9">
         <v>33</v>
       </c>
-      <c r="AW7" s="10">
+      <c r="AW7" s="9">
         <v>34</v>
       </c>
-      <c r="AX7" s="10">
+      <c r="AX7" s="9">
         <v>35</v>
       </c>
-      <c r="AY7" s="10">
+      <c r="AY7" s="9">
         <v>36</v>
       </c>
-      <c r="AZ7" s="10">
+      <c r="AZ7" s="9">
         <v>37</v>
       </c>
-      <c r="BA7" s="10">
+      <c r="BA7" s="9">
         <v>38</v>
       </c>
-      <c r="BB7" s="10">
+      <c r="BB7" s="9">
         <v>39</v>
       </c>
-      <c r="BC7" s="10">
+      <c r="BC7" s="9">
         <v>40</v>
       </c>
-      <c r="BD7" s="10">
+      <c r="BD7" s="9">
         <v>41</v>
       </c>
-      <c r="BE7" s="10">
+      <c r="BE7" s="9">
         <v>42</v>
       </c>
-      <c r="BF7" s="10">
+      <c r="BF7" s="9">
         <v>43</v>
       </c>
-      <c r="BG7" s="10">
+      <c r="BG7" s="9">
         <v>44</v>
       </c>
-      <c r="BH7" s="10">
+      <c r="BH7" s="9">
         <v>45</v>
       </c>
-      <c r="BI7" s="10">
+      <c r="BI7" s="9">
         <v>46</v>
       </c>
-      <c r="BJ7" s="10">
+      <c r="BJ7" s="9">
         <v>47</v>
       </c>
-      <c r="BK7" s="10">
+      <c r="BK7" s="9">
         <v>48</v>
       </c>
-      <c r="BL7" s="10">
+      <c r="BL7" s="9">
         <v>49</v>
       </c>
-      <c r="BM7" s="10">
+      <c r="BM7" s="9">
         <v>50</v>
       </c>
-      <c r="BN7" s="10">
+      <c r="BN7" s="9">
         <v>51</v>
       </c>
-      <c r="BO7" s="10">
+      <c r="BO7" s="9">
         <v>52</v>
       </c>
-      <c r="BP7" s="10">
+      <c r="BP7" s="9">
         <v>53</v>
       </c>
-      <c r="BQ7" s="10">
+      <c r="BQ7" s="9">
         <v>54</v>
       </c>
-      <c r="BR7" s="10">
+      <c r="BR7" s="9">
         <v>55</v>
       </c>
-      <c r="BS7" s="10">
+      <c r="BS7" s="9">
         <v>56</v>
       </c>
-      <c r="BT7" s="10">
+      <c r="BT7" s="9">
         <v>57</v>
       </c>
-      <c r="BU7" s="10">
+      <c r="BU7" s="9">
         <v>58</v>
       </c>
-      <c r="BV7" s="10">
+      <c r="BV7" s="9">
         <v>59</v>
       </c>
-      <c r="BW7" s="10">
+      <c r="BW7" s="9">
         <v>60</v>
       </c>
-      <c r="BX7" s="10">
+      <c r="BX7" s="9">
         <v>61</v>
       </c>
-      <c r="BY7" s="10">
+      <c r="BY7" s="9">
         <v>62</v>
       </c>
-      <c r="BZ7" s="10">
+      <c r="BZ7" s="9">
         <v>63</v>
       </c>
-      <c r="CA7" s="10">
+      <c r="CA7" s="9">
         <v>64</v>
       </c>
-      <c r="CB7" s="10">
+      <c r="CB7" s="9">
         <v>65</v>
       </c>
-      <c r="CC7" s="10">
+      <c r="CC7" s="9">
         <v>66</v>
       </c>
-      <c r="CD7" s="10">
+      <c r="CD7" s="9">
         <v>67</v>
       </c>
-      <c r="CE7" s="10">
+      <c r="CE7" s="9">
         <v>68</v>
       </c>
-      <c r="CF7" s="10">
+      <c r="CF7" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="12:84" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="8"/>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="8"/>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="8"/>
-      <c r="BH8" s="8"/>
-      <c r="BI8" s="8"/>
-      <c r="BJ8" s="8"/>
-      <c r="BK8" s="8"/>
-      <c r="BL8" s="8"/>
-      <c r="BM8" s="8"/>
-      <c r="BN8" s="8"/>
-      <c r="BO8" s="8"/>
-      <c r="BP8" s="8"/>
-      <c r="BQ8" s="8"/>
-      <c r="BR8" s="8"/>
-      <c r="BS8" s="8"/>
-      <c r="BT8" s="8"/>
-      <c r="BU8" s="8"/>
-      <c r="BV8" s="8"/>
-      <c r="BW8" s="8"/>
-      <c r="BX8" s="8"/>
-      <c r="BY8" s="8"/>
-      <c r="BZ8" s="8"/>
-      <c r="CA8" s="8"/>
-      <c r="CB8" s="8"/>
-      <c r="CC8" s="8"/>
-      <c r="CD8" s="8"/>
-      <c r="CE8" s="8"/>
-      <c r="CF8" s="8"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="9"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="9"/>
+      <c r="BV8" s="9"/>
+      <c r="BW8" s="9"/>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="9"/>
+      <c r="BZ8" s="9"/>
+      <c r="CA8" s="9"/>
+      <c r="CB8" s="9"/>
+      <c r="CC8" s="9"/>
+      <c r="CD8" s="9"/>
+      <c r="CE8" s="9"/>
+      <c r="CF8" s="9"/>
     </row>
     <row r="9" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="8"/>
-      <c r="AS9" s="8"/>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="8"/>
-      <c r="AZ9" s="8"/>
-      <c r="BA9" s="8"/>
-      <c r="BB9" s="8"/>
-      <c r="BC9" s="8"/>
-      <c r="BD9" s="8"/>
-      <c r="BE9" s="8"/>
-      <c r="BF9" s="8"/>
-      <c r="BG9" s="8"/>
-      <c r="BH9" s="8"/>
-      <c r="BI9" s="8"/>
-      <c r="BJ9" s="8"/>
-      <c r="BK9" s="8"/>
-      <c r="BL9" s="8"/>
-      <c r="BM9" s="8"/>
-      <c r="BN9" s="8"/>
-      <c r="BO9" s="8"/>
-      <c r="BP9" s="8"/>
-      <c r="BQ9" s="8"/>
-      <c r="BR9" s="8"/>
-      <c r="BS9" s="8"/>
-      <c r="BT9" s="8"/>
-      <c r="BU9" s="8"/>
-      <c r="BV9" s="8"/>
-      <c r="BW9" s="8"/>
-      <c r="BX9" s="8"/>
-      <c r="BY9" s="8"/>
-      <c r="BZ9" s="8"/>
-      <c r="CA9" s="8"/>
-      <c r="CB9" s="8"/>
-      <c r="CC9" s="8"/>
-      <c r="CD9" s="8"/>
-      <c r="CE9" s="8"/>
-      <c r="CF9" s="8"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="9"/>
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="9"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="9"/>
+      <c r="BQ9" s="9"/>
+      <c r="BR9" s="9"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
+      <c r="BU9" s="9"/>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9"/>
+      <c r="BX9" s="9"/>
+      <c r="BY9" s="9"/>
+      <c r="BZ9" s="9"/>
+      <c r="CA9" s="9"/>
+      <c r="CB9" s="9"/>
+      <c r="CC9" s="9"/>
+      <c r="CD9" s="9"/>
+      <c r="CE9" s="9"/>
+      <c r="CF9" s="9"/>
     </row>
     <row r="10" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="8"/>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="8"/>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
-      <c r="BD10" s="8"/>
-      <c r="BE10" s="8"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="8"/>
-      <c r="BH10" s="8"/>
-      <c r="BI10" s="8"/>
-      <c r="BJ10" s="8"/>
-      <c r="BK10" s="8"/>
-      <c r="BL10" s="8"/>
-      <c r="BM10" s="8"/>
-      <c r="BN10" s="8"/>
-      <c r="BO10" s="8"/>
-      <c r="BP10" s="8"/>
-      <c r="BQ10" s="8"/>
-      <c r="BR10" s="8"/>
-      <c r="BS10" s="8"/>
-      <c r="BT10" s="8"/>
-      <c r="BU10" s="8"/>
-      <c r="BV10" s="8"/>
-      <c r="BW10" s="8"/>
-      <c r="BX10" s="8"/>
-      <c r="BY10" s="8"/>
-      <c r="BZ10" s="8"/>
-      <c r="CA10" s="8"/>
-      <c r="CB10" s="8"/>
-      <c r="CC10" s="8"/>
-      <c r="CD10" s="8"/>
-      <c r="CE10" s="8"/>
-      <c r="CF10" s="8"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="9"/>
+      <c r="BK10" s="9"/>
+      <c r="BL10" s="9"/>
+      <c r="BM10" s="9"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="9"/>
+      <c r="BP10" s="9"/>
+      <c r="BQ10" s="9"/>
+      <c r="BR10" s="9"/>
+      <c r="BS10" s="9"/>
+      <c r="BT10" s="9"/>
+      <c r="BU10" s="9"/>
+      <c r="BV10" s="9"/>
+      <c r="BW10" s="9"/>
+      <c r="BX10" s="9"/>
+      <c r="BY10" s="9"/>
+      <c r="BZ10" s="9"/>
+      <c r="CA10" s="9"/>
+      <c r="CB10" s="9"/>
+      <c r="CC10" s="9"/>
+      <c r="CD10" s="9"/>
+      <c r="CE10" s="9"/>
+      <c r="CF10" s="9"/>
     </row>
     <row r="11" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L11" s="21"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="10">
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="9">
         <v>1</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <v>2</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="9">
         <v>3</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="9">
         <v>4</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="9">
         <v>5</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="9">
         <v>6</v>
       </c>
-      <c r="V11" s="10">
+      <c r="V11" s="9">
         <v>7</v>
       </c>
-      <c r="W11" s="10">
+      <c r="W11" s="9">
         <v>8</v>
       </c>
-      <c r="X11" s="10">
+      <c r="X11" s="9">
         <v>9</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Y11" s="9">
         <v>10</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="Z11" s="9">
         <v>11</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AA11" s="9">
         <v>12</v>
       </c>
-      <c r="AB11" s="10">
+      <c r="AB11" s="9">
         <v>13</v>
       </c>
-      <c r="AC11" s="10">
+      <c r="AC11" s="9">
         <v>14</v>
       </c>
-      <c r="AD11" s="10">
+      <c r="AD11" s="9">
         <v>15</v>
       </c>
-      <c r="AE11" s="10">
+      <c r="AE11" s="9">
         <v>16</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AF11" s="9">
         <v>17</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AG11" s="9">
         <v>18</v>
       </c>
-      <c r="AH11" s="10">
+      <c r="AH11" s="9">
         <v>19</v>
       </c>
-      <c r="AI11" s="10">
+      <c r="AI11" s="9">
         <v>20</v>
       </c>
-      <c r="AJ11" s="10">
+      <c r="AJ11" s="9">
         <v>21</v>
       </c>
-      <c r="AK11" s="10">
+      <c r="AK11" s="9">
         <v>22</v>
       </c>
-      <c r="AL11" s="10">
+      <c r="AL11" s="9">
         <v>23</v>
       </c>
-      <c r="AM11" s="10">
+      <c r="AM11" s="9">
         <v>24</v>
       </c>
-      <c r="AN11" s="10">
+      <c r="AN11" s="9">
         <v>25</v>
       </c>
-      <c r="AO11" s="10">
+      <c r="AO11" s="9">
         <v>26</v>
       </c>
-      <c r="AP11" s="10">
+      <c r="AP11" s="9">
         <v>27</v>
       </c>
-      <c r="AQ11" s="10">
+      <c r="AQ11" s="9">
         <v>28</v>
       </c>
-      <c r="AR11" s="10">
+      <c r="AR11" s="9">
         <v>29</v>
       </c>
-      <c r="AS11" s="10">
+      <c r="AS11" s="9">
         <v>30</v>
       </c>
-      <c r="AT11" s="10">
+      <c r="AT11" s="9">
         <v>31</v>
       </c>
-      <c r="AU11" s="10">
+      <c r="AU11" s="9">
         <v>32</v>
       </c>
-      <c r="AV11" s="10">
+      <c r="AV11" s="9">
         <v>33</v>
       </c>
-      <c r="AW11" s="10">
+      <c r="AW11" s="9">
         <v>34</v>
       </c>
-      <c r="AX11" s="10">
+      <c r="AX11" s="9">
         <v>35</v>
       </c>
-      <c r="AY11" s="10">
+      <c r="AY11" s="9">
         <v>36</v>
       </c>
-      <c r="AZ11" s="10">
+      <c r="AZ11" s="9">
         <v>37</v>
       </c>
-      <c r="BA11" s="10">
+      <c r="BA11" s="9">
         <v>38</v>
       </c>
-      <c r="BB11" s="10">
+      <c r="BB11" s="9">
         <v>39</v>
       </c>
-      <c r="BC11" s="10">
+      <c r="BC11" s="9">
         <v>40</v>
       </c>
-      <c r="BD11" s="10">
+      <c r="BD11" s="9">
         <v>41</v>
       </c>
-      <c r="BE11" s="10">
+      <c r="BE11" s="9">
         <v>42</v>
       </c>
-      <c r="BF11" s="10">
+      <c r="BF11" s="9">
         <v>43</v>
       </c>
-      <c r="BG11" s="10">
+      <c r="BG11" s="9">
         <v>44</v>
       </c>
-      <c r="BH11" s="10">
+      <c r="BH11" s="9">
         <v>45</v>
       </c>
-      <c r="BI11" s="10">
+      <c r="BI11" s="9">
         <v>46</v>
       </c>
-      <c r="BJ11" s="10">
+      <c r="BJ11" s="9">
         <v>47</v>
       </c>
-      <c r="BK11" s="10">
+      <c r="BK11" s="9">
         <v>48</v>
       </c>
-      <c r="BL11" s="10">
+      <c r="BL11" s="9">
         <v>49</v>
       </c>
-      <c r="BM11" s="10">
+      <c r="BM11" s="9">
         <v>50</v>
       </c>
-      <c r="BN11" s="10">
+      <c r="BN11" s="9">
         <v>51</v>
       </c>
-      <c r="BO11" s="10">
+      <c r="BO11" s="9">
         <v>52</v>
       </c>
-      <c r="BP11" s="10">
+      <c r="BP11" s="9">
         <v>53</v>
       </c>
-      <c r="BQ11" s="10">
+      <c r="BQ11" s="9">
         <v>54</v>
       </c>
-      <c r="BR11" s="10">
+      <c r="BR11" s="9">
         <v>55</v>
       </c>
-      <c r="BS11" s="10">
+      <c r="BS11" s="9">
         <v>56</v>
       </c>
-      <c r="BT11" s="10">
+      <c r="BT11" s="9">
         <v>57</v>
       </c>
-      <c r="BU11" s="10">
+      <c r="BU11" s="9">
         <v>58</v>
       </c>
-      <c r="BV11" s="10">
+      <c r="BV11" s="9">
         <v>59</v>
       </c>
-      <c r="BW11" s="10">
+      <c r="BW11" s="9">
         <v>60</v>
       </c>
-      <c r="BX11" s="10">
+      <c r="BX11" s="9">
         <v>61</v>
       </c>
-      <c r="BY11" s="10">
+      <c r="BY11" s="9">
         <v>62</v>
       </c>
-      <c r="BZ11" s="10">
+      <c r="BZ11" s="9">
         <v>63</v>
       </c>
-      <c r="CA11" s="10">
+      <c r="CA11" s="9">
         <v>64</v>
       </c>
-      <c r="CB11" s="10">
+      <c r="CB11" s="9">
         <v>65</v>
       </c>
-      <c r="CC11" s="10">
+      <c r="CC11" s="9">
         <v>66</v>
       </c>
-      <c r="CD11" s="10">
+      <c r="CD11" s="9">
         <v>67</v>
       </c>
-      <c r="CE11" s="10">
+      <c r="CE11" s="9">
         <v>68</v>
       </c>
-      <c r="CF11" s="10">
+      <c r="CF11" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="12:84" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AL12" s="8"/>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="8"/>
-      <c r="AQ12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="8"/>
-      <c r="AZ12" s="8"/>
-      <c r="BA12" s="8"/>
-      <c r="BB12" s="8"/>
-      <c r="BC12" s="8"/>
-      <c r="BD12" s="8"/>
-      <c r="BE12" s="8"/>
-      <c r="BF12" s="8"/>
-      <c r="BG12" s="8"/>
-      <c r="BH12" s="8"/>
-      <c r="BI12" s="8"/>
-      <c r="BJ12" s="8"/>
-      <c r="BK12" s="8"/>
-      <c r="BL12" s="8"/>
-      <c r="BM12" s="8"/>
-      <c r="BN12" s="8"/>
-      <c r="BO12" s="8"/>
-      <c r="BP12" s="8"/>
-      <c r="BQ12" s="8"/>
-      <c r="BR12" s="8"/>
-      <c r="BS12" s="8"/>
-      <c r="BT12" s="8"/>
-      <c r="BU12" s="8"/>
-      <c r="BV12" s="8"/>
-      <c r="BW12" s="8"/>
-      <c r="BX12" s="8"/>
-      <c r="BY12" s="8"/>
-      <c r="BZ12" s="8"/>
-      <c r="CA12" s="8"/>
-      <c r="CB12" s="8"/>
-      <c r="CC12" s="8"/>
-      <c r="CD12" s="8"/>
-      <c r="CE12" s="8"/>
-      <c r="CF12" s="8"/>
+      <c r="L12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="9"/>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="9"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="9"/>
+      <c r="BV12" s="9"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="9"/>
+      <c r="BY12" s="9"/>
+      <c r="BZ12" s="9"/>
+      <c r="CA12" s="9"/>
+      <c r="CB12" s="9"/>
+      <c r="CC12" s="9"/>
+      <c r="CD12" s="9"/>
+      <c r="CE12" s="9"/>
+      <c r="CF12" s="9"/>
     </row>
     <row r="13" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="8"/>
-      <c r="AL13" s="8"/>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="8"/>
-      <c r="AS13" s="8"/>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="8"/>
-      <c r="AZ13" s="8"/>
-      <c r="BA13" s="8"/>
-      <c r="BB13" s="8"/>
-      <c r="BC13" s="8"/>
-      <c r="BD13" s="8"/>
-      <c r="BE13" s="8"/>
-      <c r="BF13" s="8"/>
-      <c r="BG13" s="8"/>
-      <c r="BH13" s="8"/>
-      <c r="BI13" s="8"/>
-      <c r="BJ13" s="8"/>
-      <c r="BK13" s="8"/>
-      <c r="BL13" s="8"/>
-      <c r="BM13" s="8"/>
-      <c r="BN13" s="8"/>
-      <c r="BO13" s="8"/>
-      <c r="BP13" s="8"/>
-      <c r="BQ13" s="8"/>
-      <c r="BR13" s="8"/>
-      <c r="BS13" s="8"/>
-      <c r="BT13" s="8"/>
-      <c r="BU13" s="8"/>
-      <c r="BV13" s="8"/>
-      <c r="BW13" s="8"/>
-      <c r="BX13" s="8"/>
-      <c r="BY13" s="8"/>
-      <c r="BZ13" s="8"/>
-      <c r="CA13" s="8"/>
-      <c r="CB13" s="8"/>
-      <c r="CC13" s="8"/>
-      <c r="CD13" s="8"/>
-      <c r="CE13" s="8"/>
-      <c r="CF13" s="8"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9"/>
+      <c r="BL13" s="9"/>
+      <c r="BM13" s="9"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="9"/>
+      <c r="BP13" s="9"/>
+      <c r="BQ13" s="9"/>
+      <c r="BR13" s="9"/>
+      <c r="BS13" s="9"/>
+      <c r="BT13" s="9"/>
+      <c r="BU13" s="9"/>
+      <c r="BV13" s="9"/>
+      <c r="BW13" s="9"/>
+      <c r="BX13" s="9"/>
+      <c r="BY13" s="9"/>
+      <c r="BZ13" s="9"/>
+      <c r="CA13" s="9"/>
+      <c r="CB13" s="9"/>
+      <c r="CC13" s="9"/>
+      <c r="CD13" s="9"/>
+      <c r="CE13" s="9"/>
+      <c r="CF13" s="9"/>
     </row>
     <row r="14" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-      <c r="AJ14" s="8"/>
-      <c r="AK14" s="8"/>
-      <c r="AL14" s="8"/>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="8"/>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="8"/>
-      <c r="AQ14" s="8"/>
-      <c r="AR14" s="8"/>
-      <c r="AS14" s="8"/>
-      <c r="AT14" s="8"/>
-      <c r="AU14" s="8"/>
-      <c r="AV14" s="8"/>
-      <c r="AW14" s="8"/>
-      <c r="AX14" s="8"/>
-      <c r="AY14" s="8"/>
-      <c r="AZ14" s="8"/>
-      <c r="BA14" s="8"/>
-      <c r="BB14" s="8"/>
-      <c r="BC14" s="8"/>
-      <c r="BD14" s="8"/>
-      <c r="BE14" s="8"/>
-      <c r="BF14" s="8"/>
-      <c r="BG14" s="8"/>
-      <c r="BH14" s="8"/>
-      <c r="BI14" s="8"/>
-      <c r="BJ14" s="8"/>
-      <c r="BK14" s="8"/>
-      <c r="BL14" s="8"/>
-      <c r="BM14" s="8"/>
-      <c r="BN14" s="8"/>
-      <c r="BO14" s="8"/>
-      <c r="BP14" s="8"/>
-      <c r="BQ14" s="8"/>
-      <c r="BR14" s="8"/>
-      <c r="BS14" s="8"/>
-      <c r="BT14" s="8"/>
-      <c r="BU14" s="8"/>
-      <c r="BV14" s="8"/>
-      <c r="BW14" s="8"/>
-      <c r="BX14" s="8"/>
-      <c r="BY14" s="8"/>
-      <c r="BZ14" s="8"/>
-      <c r="CA14" s="8"/>
-      <c r="CB14" s="8"/>
-      <c r="CC14" s="8"/>
-      <c r="CD14" s="8"/>
-      <c r="CE14" s="8"/>
-      <c r="CF14" s="8"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="9"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="9"/>
+      <c r="CA14" s="9"/>
+      <c r="CB14" s="9"/>
+      <c r="CC14" s="9"/>
+      <c r="CD14" s="9"/>
+      <c r="CE14" s="9"/>
+      <c r="CF14" s="9"/>
     </row>
     <row r="15" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L15" s="21"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="10">
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="9">
         <v>1</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="9">
         <v>2</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="9">
         <v>3</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15" s="9">
         <v>4</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="9">
         <v>5</v>
       </c>
-      <c r="U15" s="10">
+      <c r="U15" s="9">
         <v>6</v>
       </c>
-      <c r="V15" s="10">
+      <c r="V15" s="9">
         <v>7</v>
       </c>
-      <c r="W15" s="10">
+      <c r="W15" s="9">
         <v>8</v>
       </c>
-      <c r="X15" s="10">
+      <c r="X15" s="9">
         <v>9</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Y15" s="9">
         <v>10</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z15" s="9">
         <v>11</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AA15" s="9">
         <v>12</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AB15" s="9">
         <v>13</v>
       </c>
-      <c r="AC15" s="10">
+      <c r="AC15" s="9">
         <v>14</v>
       </c>
-      <c r="AD15" s="10">
+      <c r="AD15" s="9">
         <v>15</v>
       </c>
-      <c r="AE15" s="10">
+      <c r="AE15" s="9">
         <v>16</v>
       </c>
-      <c r="AF15" s="10">
+      <c r="AF15" s="9">
         <v>17</v>
       </c>
-      <c r="AG15" s="10">
+      <c r="AG15" s="9">
         <v>18</v>
       </c>
-      <c r="AH15" s="10">
+      <c r="AH15" s="9">
         <v>19</v>
       </c>
-      <c r="AI15" s="10">
+      <c r="AI15" s="9">
         <v>20</v>
       </c>
-      <c r="AJ15" s="10">
+      <c r="AJ15" s="9">
         <v>21</v>
       </c>
-      <c r="AK15" s="10">
+      <c r="AK15" s="9">
         <v>22</v>
       </c>
-      <c r="AL15" s="10">
+      <c r="AL15" s="9">
         <v>23</v>
       </c>
-      <c r="AM15" s="10">
+      <c r="AM15" s="9">
         <v>24</v>
       </c>
-      <c r="AN15" s="10">
+      <c r="AN15" s="9">
         <v>25</v>
       </c>
-      <c r="AO15" s="10">
+      <c r="AO15" s="9">
         <v>26</v>
       </c>
-      <c r="AP15" s="10">
+      <c r="AP15" s="9">
         <v>27</v>
       </c>
-      <c r="AQ15" s="10">
+      <c r="AQ15" s="9">
         <v>28</v>
       </c>
-      <c r="AR15" s="10">
+      <c r="AR15" s="9">
         <v>29</v>
       </c>
-      <c r="AS15" s="10">
+      <c r="AS15" s="9">
         <v>30</v>
       </c>
-      <c r="AT15" s="10">
+      <c r="AT15" s="9">
         <v>31</v>
       </c>
-      <c r="AU15" s="10">
+      <c r="AU15" s="9">
         <v>32</v>
       </c>
-      <c r="AV15" s="10">
+      <c r="AV15" s="9">
         <v>33</v>
       </c>
-      <c r="AW15" s="10">
+      <c r="AW15" s="9">
         <v>34</v>
       </c>
-      <c r="AX15" s="10">
+      <c r="AX15" s="9">
         <v>35</v>
       </c>
-      <c r="AY15" s="10">
+      <c r="AY15" s="9">
         <v>36</v>
       </c>
-      <c r="AZ15" s="10">
+      <c r="AZ15" s="9">
         <v>37</v>
       </c>
-      <c r="BA15" s="10">
+      <c r="BA15" s="9">
         <v>38</v>
       </c>
-      <c r="BB15" s="10">
+      <c r="BB15" s="9">
         <v>39</v>
       </c>
-      <c r="BC15" s="10">
+      <c r="BC15" s="9">
         <v>40</v>
       </c>
-      <c r="BD15" s="10">
+      <c r="BD15" s="9">
         <v>41</v>
       </c>
-      <c r="BE15" s="10">
+      <c r="BE15" s="9">
         <v>42</v>
       </c>
-      <c r="BF15" s="10">
+      <c r="BF15" s="9">
         <v>43</v>
       </c>
-      <c r="BG15" s="10">
+      <c r="BG15" s="9">
         <v>44</v>
       </c>
-      <c r="BH15" s="10">
+      <c r="BH15" s="9">
         <v>45</v>
       </c>
-      <c r="BI15" s="10">
+      <c r="BI15" s="9">
         <v>46</v>
       </c>
-      <c r="BJ15" s="10">
+      <c r="BJ15" s="9">
         <v>47</v>
       </c>
-      <c r="BK15" s="10">
+      <c r="BK15" s="9">
         <v>48</v>
       </c>
-      <c r="BL15" s="10">
+      <c r="BL15" s="9">
         <v>49</v>
       </c>
-      <c r="BM15" s="10">
+      <c r="BM15" s="9">
         <v>50</v>
       </c>
-      <c r="BN15" s="10">
+      <c r="BN15" s="9">
         <v>51</v>
       </c>
-      <c r="BO15" s="10">
+      <c r="BO15" s="9">
         <v>52</v>
       </c>
-      <c r="BP15" s="10">
+      <c r="BP15" s="9">
         <v>53</v>
       </c>
-      <c r="BQ15" s="10">
+      <c r="BQ15" s="9">
         <v>54</v>
       </c>
-      <c r="BR15" s="10">
+      <c r="BR15" s="9">
         <v>55</v>
       </c>
-      <c r="BS15" s="10">
+      <c r="BS15" s="9">
         <v>56</v>
       </c>
-      <c r="BT15" s="10">
+      <c r="BT15" s="9">
         <v>57</v>
       </c>
-      <c r="BU15" s="10">
+      <c r="BU15" s="9">
         <v>58</v>
       </c>
-      <c r="BV15" s="10">
+      <c r="BV15" s="9">
         <v>59</v>
       </c>
-      <c r="BW15" s="10">
+      <c r="BW15" s="9">
         <v>60</v>
       </c>
-      <c r="BX15" s="10">
+      <c r="BX15" s="9">
         <v>61</v>
       </c>
-      <c r="BY15" s="10">
+      <c r="BY15" s="9">
         <v>62</v>
       </c>
-      <c r="BZ15" s="10">
+      <c r="BZ15" s="9">
         <v>63</v>
       </c>
-      <c r="CA15" s="10">
+      <c r="CA15" s="9">
         <v>64</v>
       </c>
-      <c r="CB15" s="10">
+      <c r="CB15" s="9">
         <v>65</v>
       </c>
-      <c r="CC15" s="10">
+      <c r="CC15" s="9">
         <v>66</v>
       </c>
-      <c r="CD15" s="10">
+      <c r="CD15" s="9">
         <v>67</v>
       </c>
-      <c r="CE15" s="10">
+      <c r="CE15" s="9">
         <v>68</v>
       </c>
-      <c r="CF15" s="10">
+      <c r="CF15" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="12:84" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
-      <c r="AL16" s="8"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="8"/>
-      <c r="AP16" s="8"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="8"/>
-      <c r="AS16" s="8"/>
-      <c r="AT16" s="8"/>
-      <c r="AU16" s="8"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="8"/>
-      <c r="AX16" s="8"/>
-      <c r="AY16" s="8"/>
-      <c r="AZ16" s="8"/>
-      <c r="BA16" s="8"/>
-      <c r="BB16" s="8"/>
-      <c r="BC16" s="8"/>
-      <c r="BD16" s="8"/>
-      <c r="BE16" s="8"/>
-      <c r="BF16" s="8"/>
-      <c r="BG16" s="8"/>
-      <c r="BH16" s="8"/>
-      <c r="BI16" s="8"/>
-      <c r="BJ16" s="8"/>
-      <c r="BK16" s="8"/>
-      <c r="BL16" s="8"/>
-      <c r="BM16" s="8"/>
-      <c r="BN16" s="8"/>
-      <c r="BO16" s="8"/>
-      <c r="BP16" s="8"/>
-      <c r="BQ16" s="8"/>
-      <c r="BR16" s="8"/>
-      <c r="BS16" s="8"/>
-      <c r="BT16" s="8"/>
-      <c r="BU16" s="8"/>
-      <c r="BV16" s="8"/>
-      <c r="BW16" s="8"/>
-      <c r="BX16" s="8"/>
-      <c r="BY16" s="8"/>
-      <c r="BZ16" s="8"/>
-      <c r="CA16" s="8"/>
-      <c r="CB16" s="8"/>
-      <c r="CC16" s="8"/>
-      <c r="CD16" s="8"/>
-      <c r="CE16" s="8"/>
-      <c r="CF16" s="8"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="9"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="9"/>
+      <c r="BK16" s="9"/>
+      <c r="BL16" s="9"/>
+      <c r="BM16" s="9"/>
+      <c r="BN16" s="9"/>
+      <c r="BO16" s="9"/>
+      <c r="BP16" s="9"/>
+      <c r="BQ16" s="9"/>
+      <c r="BR16" s="9"/>
+      <c r="BS16" s="9"/>
+      <c r="BT16" s="9"/>
+      <c r="BU16" s="9"/>
+      <c r="BV16" s="9"/>
+      <c r="BW16" s="9"/>
+      <c r="BX16" s="9"/>
+      <c r="BY16" s="9"/>
+      <c r="BZ16" s="9"/>
+      <c r="CA16" s="9"/>
+      <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
+      <c r="CD16" s="9"/>
+      <c r="CE16" s="9"/>
+      <c r="CF16" s="9"/>
     </row>
     <row r="17" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
-      <c r="AL17" s="8"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="8"/>
-      <c r="AP17" s="8"/>
-      <c r="AQ17" s="8"/>
-      <c r="AR17" s="8"/>
-      <c r="AS17" s="8"/>
-      <c r="AT17" s="8"/>
-      <c r="AU17" s="8"/>
-      <c r="AV17" s="8"/>
-      <c r="AW17" s="8"/>
-      <c r="AX17" s="8"/>
-      <c r="AY17" s="8"/>
-      <c r="AZ17" s="8"/>
-      <c r="BA17" s="8"/>
-      <c r="BB17" s="8"/>
-      <c r="BC17" s="8"/>
-      <c r="BD17" s="8"/>
-      <c r="BE17" s="8"/>
-      <c r="BF17" s="8"/>
-      <c r="BG17" s="8"/>
-      <c r="BH17" s="8"/>
-      <c r="BI17" s="8"/>
-      <c r="BJ17" s="8"/>
-      <c r="BK17" s="8"/>
-      <c r="BL17" s="8"/>
-      <c r="BM17" s="8"/>
-      <c r="BN17" s="8"/>
-      <c r="BO17" s="8"/>
-      <c r="BP17" s="8"/>
-      <c r="BQ17" s="8"/>
-      <c r="BR17" s="8"/>
-      <c r="BS17" s="8"/>
-      <c r="BT17" s="8"/>
-      <c r="BU17" s="8"/>
-      <c r="BV17" s="8"/>
-      <c r="BW17" s="8"/>
-      <c r="BX17" s="8"/>
-      <c r="BY17" s="8"/>
-      <c r="BZ17" s="8"/>
-      <c r="CA17" s="8"/>
-      <c r="CB17" s="8"/>
-      <c r="CC17" s="8"/>
-      <c r="CD17" s="8"/>
-      <c r="CE17" s="8"/>
-      <c r="CF17" s="8"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="9"/>
+      <c r="BA17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="9"/>
+      <c r="BF17" s="9"/>
+      <c r="BG17" s="9"/>
+      <c r="BH17" s="9"/>
+      <c r="BI17" s="9"/>
+      <c r="BJ17" s="9"/>
+      <c r="BK17" s="9"/>
+      <c r="BL17" s="9"/>
+      <c r="BM17" s="9"/>
+      <c r="BN17" s="9"/>
+      <c r="BO17" s="9"/>
+      <c r="BP17" s="9"/>
+      <c r="BQ17" s="9"/>
+      <c r="BR17" s="9"/>
+      <c r="BS17" s="9"/>
+      <c r="BT17" s="9"/>
+      <c r="BU17" s="9"/>
+      <c r="BV17" s="9"/>
+      <c r="BW17" s="9"/>
+      <c r="BX17" s="9"/>
+      <c r="BY17" s="9"/>
+      <c r="BZ17" s="9"/>
+      <c r="CA17" s="9"/>
+      <c r="CB17" s="9"/>
+      <c r="CC17" s="9"/>
+      <c r="CD17" s="9"/>
+      <c r="CE17" s="9"/>
+      <c r="CF17" s="9"/>
     </row>
     <row r="18" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-      <c r="AJ18" s="8"/>
-      <c r="AK18" s="8"/>
-      <c r="AL18" s="8"/>
-      <c r="AM18" s="8"/>
-      <c r="AN18" s="8"/>
-      <c r="AO18" s="8"/>
-      <c r="AP18" s="8"/>
-      <c r="AQ18" s="8"/>
-      <c r="AR18" s="8"/>
-      <c r="AS18" s="8"/>
-      <c r="AT18" s="8"/>
-      <c r="AU18" s="8"/>
-      <c r="AV18" s="8"/>
-      <c r="AW18" s="8"/>
-      <c r="AX18" s="8"/>
-      <c r="AY18" s="8"/>
-      <c r="AZ18" s="8"/>
-      <c r="BA18" s="8"/>
-      <c r="BB18" s="8"/>
-      <c r="BC18" s="8"/>
-      <c r="BD18" s="8"/>
-      <c r="BE18" s="8"/>
-      <c r="BF18" s="8"/>
-      <c r="BG18" s="8"/>
-      <c r="BH18" s="8"/>
-      <c r="BI18" s="8"/>
-      <c r="BJ18" s="8"/>
-      <c r="BK18" s="8"/>
-      <c r="BL18" s="8"/>
-      <c r="BM18" s="8"/>
-      <c r="BN18" s="8"/>
-      <c r="BO18" s="8"/>
-      <c r="BP18" s="8"/>
-      <c r="BQ18" s="8"/>
-      <c r="BR18" s="8"/>
-      <c r="BS18" s="8"/>
-      <c r="BT18" s="8"/>
-      <c r="BU18" s="8"/>
-      <c r="BV18" s="8"/>
-      <c r="BW18" s="8"/>
-      <c r="BX18" s="8"/>
-      <c r="BY18" s="8"/>
-      <c r="BZ18" s="8"/>
-      <c r="CA18" s="8"/>
-      <c r="CB18" s="8"/>
-      <c r="CC18" s="8"/>
-      <c r="CD18" s="8"/>
-      <c r="CE18" s="8"/>
-      <c r="CF18" s="8"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="9"/>
+      <c r="BA18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="9"/>
+      <c r="BF18" s="9"/>
+      <c r="BG18" s="9"/>
+      <c r="BH18" s="9"/>
+      <c r="BI18" s="9"/>
+      <c r="BJ18" s="9"/>
+      <c r="BK18" s="9"/>
+      <c r="BL18" s="9"/>
+      <c r="BM18" s="9"/>
+      <c r="BN18" s="9"/>
+      <c r="BO18" s="9"/>
+      <c r="BP18" s="9"/>
+      <c r="BQ18" s="9"/>
+      <c r="BR18" s="9"/>
+      <c r="BS18" s="9"/>
+      <c r="BT18" s="9"/>
+      <c r="BU18" s="9"/>
+      <c r="BV18" s="9"/>
+      <c r="BW18" s="9"/>
+      <c r="BX18" s="9"/>
+      <c r="BY18" s="9"/>
+      <c r="BZ18" s="9"/>
+      <c r="CA18" s="9"/>
+      <c r="CB18" s="9"/>
+      <c r="CC18" s="9"/>
+      <c r="CD18" s="9"/>
+      <c r="CE18" s="9"/>
+      <c r="CF18" s="9"/>
     </row>
     <row r="19" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L19" s="21"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="10">
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="9">
         <v>1</v>
       </c>
-      <c r="Q19" s="10">
+      <c r="Q19" s="9">
         <v>2</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="9">
         <v>3</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S19" s="9">
         <v>4</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="9">
         <v>5</v>
       </c>
-      <c r="U19" s="10">
+      <c r="U19" s="9">
         <v>6</v>
       </c>
-      <c r="V19" s="10">
+      <c r="V19" s="9">
         <v>7</v>
       </c>
-      <c r="W19" s="10">
+      <c r="W19" s="9">
         <v>8</v>
       </c>
-      <c r="X19" s="10">
+      <c r="X19" s="9">
         <v>9</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="Y19" s="9">
         <v>10</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="9">
         <v>11</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AA19" s="9">
         <v>12</v>
       </c>
-      <c r="AB19" s="10">
+      <c r="AB19" s="9">
         <v>13</v>
       </c>
-      <c r="AC19" s="10">
+      <c r="AC19" s="9">
         <v>14</v>
       </c>
-      <c r="AD19" s="10">
+      <c r="AD19" s="9">
         <v>15</v>
       </c>
-      <c r="AE19" s="10">
+      <c r="AE19" s="9">
         <v>16</v>
       </c>
-      <c r="AF19" s="10">
+      <c r="AF19" s="9">
         <v>17</v>
       </c>
-      <c r="AG19" s="10">
+      <c r="AG19" s="9">
         <v>18</v>
       </c>
-      <c r="AH19" s="10">
+      <c r="AH19" s="9">
         <v>19</v>
       </c>
-      <c r="AI19" s="10">
+      <c r="AI19" s="9">
         <v>20</v>
       </c>
-      <c r="AJ19" s="10">
+      <c r="AJ19" s="9">
         <v>21</v>
       </c>
-      <c r="AK19" s="10">
+      <c r="AK19" s="9">
         <v>22</v>
       </c>
-      <c r="AL19" s="10">
+      <c r="AL19" s="9">
         <v>23</v>
       </c>
-      <c r="AM19" s="10">
+      <c r="AM19" s="9">
         <v>24</v>
       </c>
-      <c r="AN19" s="10">
+      <c r="AN19" s="9">
         <v>25</v>
       </c>
-      <c r="AO19" s="10">
+      <c r="AO19" s="9">
         <v>26</v>
       </c>
-      <c r="AP19" s="10">
+      <c r="AP19" s="9">
         <v>27</v>
       </c>
-      <c r="AQ19" s="10">
+      <c r="AQ19" s="9">
         <v>28</v>
       </c>
-      <c r="AR19" s="10">
+      <c r="AR19" s="9">
         <v>29</v>
       </c>
-      <c r="AS19" s="10">
+      <c r="AS19" s="9">
         <v>30</v>
       </c>
-      <c r="AT19" s="10">
+      <c r="AT19" s="9">
         <v>31</v>
       </c>
-      <c r="AU19" s="10">
+      <c r="AU19" s="9">
         <v>32</v>
       </c>
-      <c r="AV19" s="10">
+      <c r="AV19" s="9">
         <v>33</v>
       </c>
-      <c r="AW19" s="10">
+      <c r="AW19" s="9">
         <v>34</v>
       </c>
-      <c r="AX19" s="10">
+      <c r="AX19" s="9">
         <v>35</v>
       </c>
-      <c r="AY19" s="10">
+      <c r="AY19" s="9">
         <v>36</v>
       </c>
-      <c r="AZ19" s="10">
+      <c r="AZ19" s="9">
         <v>37</v>
       </c>
-      <c r="BA19" s="10">
+      <c r="BA19" s="9">
         <v>38</v>
       </c>
-      <c r="BB19" s="10">
+      <c r="BB19" s="9">
         <v>39</v>
       </c>
-      <c r="BC19" s="10">
+      <c r="BC19" s="9">
         <v>40</v>
       </c>
-      <c r="BD19" s="10">
+      <c r="BD19" s="9">
         <v>41</v>
       </c>
-      <c r="BE19" s="10">
+      <c r="BE19" s="9">
         <v>42</v>
       </c>
-      <c r="BF19" s="10">
+      <c r="BF19" s="9">
         <v>43</v>
       </c>
-      <c r="BG19" s="10">
+      <c r="BG19" s="9">
         <v>44</v>
       </c>
-      <c r="BH19" s="10">
+      <c r="BH19" s="9">
         <v>45</v>
       </c>
-      <c r="BI19" s="10">
+      <c r="BI19" s="9">
         <v>46</v>
       </c>
-      <c r="BJ19" s="10">
+      <c r="BJ19" s="9">
         <v>47</v>
       </c>
-      <c r="BK19" s="10">
+      <c r="BK19" s="9">
         <v>48</v>
       </c>
-      <c r="BL19" s="10">
+      <c r="BL19" s="9">
         <v>49</v>
       </c>
-      <c r="BM19" s="10">
+      <c r="BM19" s="9">
         <v>50</v>
       </c>
-      <c r="BN19" s="10">
+      <c r="BN19" s="9">
         <v>51</v>
       </c>
-      <c r="BO19" s="10">
+      <c r="BO19" s="9">
         <v>52</v>
       </c>
-      <c r="BP19" s="10">
+      <c r="BP19" s="9">
         <v>53</v>
       </c>
-      <c r="BQ19" s="10">
+      <c r="BQ19" s="9">
         <v>54</v>
       </c>
-      <c r="BR19" s="10">
+      <c r="BR19" s="9">
         <v>55</v>
       </c>
-      <c r="BS19" s="10">
+      <c r="BS19" s="9">
         <v>56</v>
       </c>
-      <c r="BT19" s="10">
+      <c r="BT19" s="9">
         <v>57</v>
       </c>
-      <c r="BU19" s="10">
+      <c r="BU19" s="9">
         <v>58</v>
       </c>
-      <c r="BV19" s="10">
+      <c r="BV19" s="9">
         <v>59</v>
       </c>
-      <c r="BW19" s="10">
+      <c r="BW19" s="9">
         <v>60</v>
       </c>
-      <c r="BX19" s="10">
+      <c r="BX19" s="9">
         <v>61</v>
       </c>
-      <c r="BY19" s="10">
+      <c r="BY19" s="9">
         <v>62</v>
       </c>
-      <c r="BZ19" s="10">
+      <c r="BZ19" s="9">
         <v>63</v>
       </c>
-      <c r="CA19" s="10">
+      <c r="CA19" s="9">
         <v>64</v>
       </c>
-      <c r="CB19" s="10">
+      <c r="CB19" s="9">
         <v>65</v>
       </c>
-      <c r="CC19" s="10">
+      <c r="CC19" s="9">
         <v>66</v>
       </c>
-      <c r="CD19" s="10">
+      <c r="CD19" s="9">
         <v>67</v>
       </c>
-      <c r="CE19" s="10">
+      <c r="CE19" s="9">
         <v>68</v>
       </c>
-      <c r="CF19" s="10">
+      <c r="CF19" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="12:84" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="8"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="8"/>
-      <c r="AI20" s="8"/>
-      <c r="AJ20" s="8"/>
-      <c r="AK20" s="8"/>
-      <c r="AL20" s="8"/>
-      <c r="AM20" s="8"/>
-      <c r="AN20" s="8"/>
-      <c r="AO20" s="8"/>
-      <c r="AP20" s="8"/>
-      <c r="AQ20" s="8"/>
-      <c r="AR20" s="8"/>
-      <c r="AS20" s="8"/>
-      <c r="AT20" s="8"/>
-      <c r="AU20" s="8"/>
-      <c r="AV20" s="8"/>
-      <c r="AW20" s="8"/>
-      <c r="AX20" s="8"/>
-      <c r="AY20" s="8"/>
-      <c r="AZ20" s="8"/>
-      <c r="BA20" s="8"/>
-      <c r="BB20" s="8"/>
-      <c r="BC20" s="8"/>
-      <c r="BD20" s="8"/>
-      <c r="BE20" s="8"/>
-      <c r="BF20" s="8"/>
-      <c r="BG20" s="8"/>
-      <c r="BH20" s="8"/>
-      <c r="BI20" s="8"/>
-      <c r="BJ20" s="8"/>
-      <c r="BK20" s="8"/>
-      <c r="BL20" s="8"/>
-      <c r="BM20" s="8"/>
-      <c r="BN20" s="8"/>
-      <c r="BO20" s="8"/>
-      <c r="BP20" s="8"/>
-      <c r="BQ20" s="8"/>
-      <c r="BR20" s="8"/>
-      <c r="BS20" s="8"/>
-      <c r="BT20" s="8"/>
-      <c r="BU20" s="8"/>
-      <c r="BV20" s="8"/>
-      <c r="BW20" s="8"/>
-      <c r="BX20" s="8"/>
-      <c r="BY20" s="8"/>
-      <c r="BZ20" s="8"/>
-      <c r="CA20" s="8"/>
-      <c r="CB20" s="8"/>
-      <c r="CC20" s="8"/>
-      <c r="CD20" s="8"/>
-      <c r="CE20" s="8"/>
-      <c r="CF20" s="8"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="9"/>
+      <c r="BI20" s="9"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="9"/>
+      <c r="BM20" s="9"/>
+      <c r="BN20" s="9"/>
+      <c r="BO20" s="9"/>
+      <c r="BP20" s="9"/>
+      <c r="BQ20" s="9"/>
+      <c r="BR20" s="9"/>
+      <c r="BS20" s="9"/>
+      <c r="BT20" s="9"/>
+      <c r="BU20" s="9"/>
+      <c r="BV20" s="9"/>
+      <c r="BW20" s="9"/>
+      <c r="BX20" s="9"/>
+      <c r="BY20" s="9"/>
+      <c r="BZ20" s="9"/>
+      <c r="CA20" s="9"/>
+      <c r="CB20" s="9"/>
+      <c r="CC20" s="9"/>
+      <c r="CD20" s="9"/>
+      <c r="CE20" s="9"/>
+      <c r="CF20" s="9"/>
     </row>
     <row r="21" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L21" s="18"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="8"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="8"/>
-      <c r="AK21" s="8"/>
-      <c r="AL21" s="8"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="8"/>
-      <c r="AQ21" s="8"/>
-      <c r="AR21" s="8"/>
-      <c r="AS21" s="8"/>
-      <c r="AT21" s="8"/>
-      <c r="AU21" s="8"/>
-      <c r="AV21" s="8"/>
-      <c r="AW21" s="8"/>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="8"/>
-      <c r="AZ21" s="8"/>
-      <c r="BA21" s="8"/>
-      <c r="BB21" s="8"/>
-      <c r="BC21" s="8"/>
-      <c r="BD21" s="8"/>
-      <c r="BE21" s="8"/>
-      <c r="BF21" s="8"/>
-      <c r="BG21" s="8"/>
-      <c r="BH21" s="8"/>
-      <c r="BI21" s="8"/>
-      <c r="BJ21" s="8"/>
-      <c r="BK21" s="8"/>
-      <c r="BL21" s="8"/>
-      <c r="BM21" s="8"/>
-      <c r="BN21" s="8"/>
-      <c r="BO21" s="8"/>
-      <c r="BP21" s="8"/>
-      <c r="BQ21" s="8"/>
-      <c r="BR21" s="8"/>
-      <c r="BS21" s="8"/>
-      <c r="BT21" s="8"/>
-      <c r="BU21" s="8"/>
-      <c r="BV21" s="8"/>
-      <c r="BW21" s="8"/>
-      <c r="BX21" s="8"/>
-      <c r="BY21" s="8"/>
-      <c r="BZ21" s="8"/>
-      <c r="CA21" s="8"/>
-      <c r="CB21" s="8"/>
-      <c r="CC21" s="8"/>
-      <c r="CD21" s="8"/>
-      <c r="CE21" s="8"/>
-      <c r="CF21" s="8"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
+      <c r="BF21" s="9"/>
+      <c r="BG21" s="9"/>
+      <c r="BH21" s="9"/>
+      <c r="BI21" s="9"/>
+      <c r="BJ21" s="9"/>
+      <c r="BK21" s="9"/>
+      <c r="BL21" s="9"/>
+      <c r="BM21" s="9"/>
+      <c r="BN21" s="9"/>
+      <c r="BO21" s="9"/>
+      <c r="BP21" s="9"/>
+      <c r="BQ21" s="9"/>
+      <c r="BR21" s="9"/>
+      <c r="BS21" s="9"/>
+      <c r="BT21" s="9"/>
+      <c r="BU21" s="9"/>
+      <c r="BV21" s="9"/>
+      <c r="BW21" s="9"/>
+      <c r="BX21" s="9"/>
+      <c r="BY21" s="9"/>
+      <c r="BZ21" s="9"/>
+      <c r="CA21" s="9"/>
+      <c r="CB21" s="9"/>
+      <c r="CC21" s="9"/>
+      <c r="CD21" s="9"/>
+      <c r="CE21" s="9"/>
+      <c r="CF21" s="9"/>
     </row>
     <row r="22" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="8"/>
-      <c r="AI22" s="8"/>
-      <c r="AJ22" s="8"/>
-      <c r="AK22" s="8"/>
-      <c r="AL22" s="8"/>
-      <c r="AM22" s="8"/>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="8"/>
-      <c r="AQ22" s="8"/>
-      <c r="AR22" s="8"/>
-      <c r="AS22" s="8"/>
-      <c r="AT22" s="8"/>
-      <c r="AU22" s="8"/>
-      <c r="AV22" s="8"/>
-      <c r="AW22" s="8"/>
-      <c r="AX22" s="8"/>
-      <c r="AY22" s="8"/>
-      <c r="AZ22" s="8"/>
-      <c r="BA22" s="8"/>
-      <c r="BB22" s="8"/>
-      <c r="BC22" s="8"/>
-      <c r="BD22" s="8"/>
-      <c r="BE22" s="8"/>
-      <c r="BF22" s="8"/>
-      <c r="BG22" s="8"/>
-      <c r="BH22" s="8"/>
-      <c r="BI22" s="8"/>
-      <c r="BJ22" s="8"/>
-      <c r="BK22" s="8"/>
-      <c r="BL22" s="8"/>
-      <c r="BM22" s="8"/>
-      <c r="BN22" s="8"/>
-      <c r="BO22" s="8"/>
-      <c r="BP22" s="8"/>
-      <c r="BQ22" s="8"/>
-      <c r="BR22" s="8"/>
-      <c r="BS22" s="8"/>
-      <c r="BT22" s="8"/>
-      <c r="BU22" s="8"/>
-      <c r="BV22" s="8"/>
-      <c r="BW22" s="8"/>
-      <c r="BX22" s="8"/>
-      <c r="BY22" s="8"/>
-      <c r="BZ22" s="8"/>
-      <c r="CA22" s="8"/>
-      <c r="CB22" s="8"/>
-      <c r="CC22" s="8"/>
-      <c r="CD22" s="8"/>
-      <c r="CE22" s="8"/>
-      <c r="CF22" s="8"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="9"/>
+      <c r="BH22" s="9"/>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="9"/>
+      <c r="BN22" s="9"/>
+      <c r="BO22" s="9"/>
+      <c r="BP22" s="9"/>
+      <c r="BQ22" s="9"/>
+      <c r="BR22" s="9"/>
+      <c r="BS22" s="9"/>
+      <c r="BT22" s="9"/>
+      <c r="BU22" s="9"/>
+      <c r="BV22" s="9"/>
+      <c r="BW22" s="9"/>
+      <c r="BX22" s="9"/>
+      <c r="BY22" s="9"/>
+      <c r="BZ22" s="9"/>
+      <c r="CA22" s="9"/>
+      <c r="CB22" s="9"/>
+      <c r="CC22" s="9"/>
+      <c r="CD22" s="9"/>
+      <c r="CE22" s="9"/>
+      <c r="CF22" s="9"/>
     </row>
     <row r="23" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="10">
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="9">
         <v>1</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="9">
         <v>2</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="9">
         <v>3</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="9">
         <v>4</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="9">
         <v>5</v>
       </c>
-      <c r="U23" s="10">
+      <c r="U23" s="9">
         <v>6</v>
       </c>
-      <c r="V23" s="10">
+      <c r="V23" s="9">
         <v>7</v>
       </c>
-      <c r="W23" s="10">
+      <c r="W23" s="9">
         <v>8</v>
       </c>
-      <c r="X23" s="10">
+      <c r="X23" s="9">
         <v>9</v>
       </c>
-      <c r="Y23" s="10">
+      <c r="Y23" s="9">
         <v>10</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="Z23" s="9">
         <v>11</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AA23" s="9">
         <v>12</v>
       </c>
-      <c r="AB23" s="10">
+      <c r="AB23" s="9">
         <v>13</v>
       </c>
-      <c r="AC23" s="10">
+      <c r="AC23" s="9">
         <v>14</v>
       </c>
-      <c r="AD23" s="10">
+      <c r="AD23" s="9">
         <v>15</v>
       </c>
-      <c r="AE23" s="10">
+      <c r="AE23" s="9">
         <v>16</v>
       </c>
-      <c r="AF23" s="10">
+      <c r="AF23" s="9">
         <v>17</v>
       </c>
-      <c r="AG23" s="10">
+      <c r="AG23" s="9">
         <v>18</v>
       </c>
-      <c r="AH23" s="10">
+      <c r="AH23" s="9">
         <v>19</v>
       </c>
-      <c r="AI23" s="10">
+      <c r="AI23" s="9">
         <v>20</v>
       </c>
-      <c r="AJ23" s="10">
+      <c r="AJ23" s="9">
         <v>21</v>
       </c>
-      <c r="AK23" s="10">
+      <c r="AK23" s="9">
         <v>22</v>
       </c>
-      <c r="AL23" s="10">
+      <c r="AL23" s="9">
         <v>23</v>
       </c>
-      <c r="AM23" s="10">
+      <c r="AM23" s="9">
         <v>24</v>
       </c>
-      <c r="AN23" s="10">
+      <c r="AN23" s="9">
         <v>25</v>
       </c>
-      <c r="AO23" s="10">
+      <c r="AO23" s="9">
         <v>26</v>
       </c>
-      <c r="AP23" s="10">
+      <c r="AP23" s="9">
         <v>27</v>
       </c>
-      <c r="AQ23" s="10">
+      <c r="AQ23" s="9">
         <v>28</v>
       </c>
-      <c r="AR23" s="10">
+      <c r="AR23" s="9">
         <v>29</v>
       </c>
-      <c r="AS23" s="10">
+      <c r="AS23" s="9">
         <v>30</v>
       </c>
-      <c r="AT23" s="10">
+      <c r="AT23" s="9">
         <v>31</v>
       </c>
-      <c r="AU23" s="10">
+      <c r="AU23" s="9">
         <v>32</v>
       </c>
-      <c r="AV23" s="10">
+      <c r="AV23" s="9">
         <v>33</v>
       </c>
-      <c r="AW23" s="10">
+      <c r="AW23" s="9">
         <v>34</v>
       </c>
-      <c r="AX23" s="10">
+      <c r="AX23" s="9">
         <v>35</v>
       </c>
-      <c r="AY23" s="10">
+      <c r="AY23" s="9">
         <v>36</v>
       </c>
-      <c r="AZ23" s="10">
+      <c r="AZ23" s="9">
         <v>37</v>
       </c>
-      <c r="BA23" s="10">
+      <c r="BA23" s="9">
         <v>38</v>
       </c>
-      <c r="BB23" s="10">
+      <c r="BB23" s="9">
         <v>39</v>
       </c>
-      <c r="BC23" s="10">
+      <c r="BC23" s="9">
         <v>40</v>
       </c>
-      <c r="BD23" s="10">
+      <c r="BD23" s="9">
         <v>41</v>
       </c>
-      <c r="BE23" s="10">
+      <c r="BE23" s="9">
         <v>42</v>
       </c>
-      <c r="BF23" s="10">
+      <c r="BF23" s="9">
         <v>43</v>
       </c>
-      <c r="BG23" s="10">
+      <c r="BG23" s="9">
         <v>44</v>
       </c>
-      <c r="BH23" s="10">
+      <c r="BH23" s="9">
         <v>45</v>
       </c>
-      <c r="BI23" s="10">
+      <c r="BI23" s="9">
         <v>46</v>
       </c>
-      <c r="BJ23" s="10">
+      <c r="BJ23" s="9">
         <v>47</v>
       </c>
-      <c r="BK23" s="10">
+      <c r="BK23" s="9">
         <v>48</v>
       </c>
-      <c r="BL23" s="10">
+      <c r="BL23" s="9">
         <v>49</v>
       </c>
-      <c r="BM23" s="10">
+      <c r="BM23" s="9">
         <v>50</v>
       </c>
-      <c r="BN23" s="10">
+      <c r="BN23" s="9">
         <v>51</v>
       </c>
-      <c r="BO23" s="10">
+      <c r="BO23" s="9">
         <v>52</v>
       </c>
-      <c r="BP23" s="10">
+      <c r="BP23" s="9">
         <v>53</v>
       </c>
-      <c r="BQ23" s="10">
+      <c r="BQ23" s="9">
         <v>54</v>
       </c>
-      <c r="BR23" s="10">
+      <c r="BR23" s="9">
         <v>55</v>
       </c>
-      <c r="BS23" s="10">
+      <c r="BS23" s="9">
         <v>56</v>
       </c>
-      <c r="BT23" s="10">
+      <c r="BT23" s="9">
         <v>57</v>
       </c>
-      <c r="BU23" s="10">
+      <c r="BU23" s="9">
         <v>58</v>
       </c>
-      <c r="BV23" s="10">
+      <c r="BV23" s="9">
         <v>59</v>
       </c>
-      <c r="BW23" s="10">
+      <c r="BW23" s="9">
         <v>60</v>
       </c>
-      <c r="BX23" s="10">
+      <c r="BX23" s="9">
         <v>61</v>
       </c>
-      <c r="BY23" s="10">
+      <c r="BY23" s="9">
         <v>62</v>
       </c>
-      <c r="BZ23" s="10">
+      <c r="BZ23" s="9">
         <v>63</v>
       </c>
-      <c r="CA23" s="10">
+      <c r="CA23" s="9">
         <v>64</v>
       </c>
-      <c r="CB23" s="10">
+      <c r="CB23" s="9">
         <v>65</v>
       </c>
-      <c r="CC23" s="10">
+      <c r="CC23" s="9">
         <v>66</v>
       </c>
-      <c r="CD23" s="10">
+      <c r="CD23" s="9">
         <v>67</v>
       </c>
-      <c r="CE23" s="10">
+      <c r="CE23" s="9">
         <v>68</v>
       </c>
-      <c r="CF23" s="10">
+      <c r="CF23" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="12:84" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8"/>
-      <c r="AP24" s="8"/>
-      <c r="AQ24" s="8"/>
-      <c r="AR24" s="8"/>
-      <c r="AS24" s="8"/>
-      <c r="AT24" s="8"/>
-      <c r="AU24" s="8"/>
-      <c r="AV24" s="8"/>
-      <c r="AW24" s="8"/>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
-      <c r="AZ24" s="8"/>
-      <c r="BA24" s="8"/>
-      <c r="BB24" s="8"/>
-      <c r="BC24" s="8"/>
-      <c r="BD24" s="8"/>
-      <c r="BE24" s="8"/>
-      <c r="BF24" s="8"/>
-      <c r="BG24" s="8"/>
-      <c r="BH24" s="8"/>
-      <c r="BI24" s="8"/>
-      <c r="BJ24" s="8"/>
-      <c r="BK24" s="8"/>
-      <c r="BL24" s="8"/>
-      <c r="BM24" s="8"/>
-      <c r="BN24" s="8"/>
-      <c r="BO24" s="8"/>
-      <c r="BP24" s="8"/>
-      <c r="BQ24" s="8"/>
-      <c r="BR24" s="8"/>
-      <c r="BS24" s="8"/>
-      <c r="BT24" s="8"/>
-      <c r="BU24" s="8"/>
-      <c r="BV24" s="8"/>
-      <c r="BW24" s="8"/>
-      <c r="BX24" s="8"/>
-      <c r="BY24" s="8"/>
-      <c r="BZ24" s="8"/>
-      <c r="CA24" s="8"/>
-      <c r="CB24" s="8"/>
-      <c r="CC24" s="8"/>
-      <c r="CD24" s="8"/>
-      <c r="CE24" s="8"/>
-      <c r="CF24" s="8"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="9"/>
+      <c r="BH24" s="9"/>
+      <c r="BI24" s="9"/>
+      <c r="BJ24" s="9"/>
+      <c r="BK24" s="9"/>
+      <c r="BL24" s="9"/>
+      <c r="BM24" s="9"/>
+      <c r="BN24" s="9"/>
+      <c r="BO24" s="9"/>
+      <c r="BP24" s="9"/>
+      <c r="BQ24" s="9"/>
+      <c r="BR24" s="9"/>
+      <c r="BS24" s="9"/>
+      <c r="BT24" s="9"/>
+      <c r="BU24" s="9"/>
+      <c r="BV24" s="9"/>
+      <c r="BW24" s="9"/>
+      <c r="BX24" s="9"/>
+      <c r="BY24" s="9"/>
+      <c r="BZ24" s="9"/>
+      <c r="CA24" s="9"/>
+      <c r="CB24" s="9"/>
+      <c r="CC24" s="9"/>
+      <c r="CD24" s="9"/>
+      <c r="CE24" s="9"/>
+      <c r="CF24" s="9"/>
     </row>
     <row r="25" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
-      <c r="AM25" s="8"/>
-      <c r="AN25" s="8"/>
-      <c r="AO25" s="8"/>
-      <c r="AP25" s="8"/>
-      <c r="AQ25" s="8"/>
-      <c r="AR25" s="8"/>
-      <c r="AS25" s="8"/>
-      <c r="AT25" s="8"/>
-      <c r="AU25" s="8"/>
-      <c r="AV25" s="8"/>
-      <c r="AW25" s="8"/>
-      <c r="AX25" s="8"/>
-      <c r="AY25" s="8"/>
-      <c r="AZ25" s="8"/>
-      <c r="BA25" s="8"/>
-      <c r="BB25" s="8"/>
-      <c r="BC25" s="8"/>
-      <c r="BD25" s="8"/>
-      <c r="BE25" s="8"/>
-      <c r="BF25" s="8"/>
-      <c r="BG25" s="8"/>
-      <c r="BH25" s="8"/>
-      <c r="BI25" s="8"/>
-      <c r="BJ25" s="8"/>
-      <c r="BK25" s="8"/>
-      <c r="BL25" s="8"/>
-      <c r="BM25" s="8"/>
-      <c r="BN25" s="8"/>
-      <c r="BO25" s="8"/>
-      <c r="BP25" s="8"/>
-      <c r="BQ25" s="8"/>
-      <c r="BR25" s="8"/>
-      <c r="BS25" s="8"/>
-      <c r="BT25" s="8"/>
-      <c r="BU25" s="8"/>
-      <c r="BV25" s="8"/>
-      <c r="BW25" s="8"/>
-      <c r="BX25" s="8"/>
-      <c r="BY25" s="8"/>
-      <c r="BZ25" s="8"/>
-      <c r="CA25" s="8"/>
-      <c r="CB25" s="8"/>
-      <c r="CC25" s="8"/>
-      <c r="CD25" s="8"/>
-      <c r="CE25" s="8"/>
-      <c r="CF25" s="8"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="9"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="9"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="9"/>
+      <c r="BE25" s="9"/>
+      <c r="BF25" s="9"/>
+      <c r="BG25" s="9"/>
+      <c r="BH25" s="9"/>
+      <c r="BI25" s="9"/>
+      <c r="BJ25" s="9"/>
+      <c r="BK25" s="9"/>
+      <c r="BL25" s="9"/>
+      <c r="BM25" s="9"/>
+      <c r="BN25" s="9"/>
+      <c r="BO25" s="9"/>
+      <c r="BP25" s="9"/>
+      <c r="BQ25" s="9"/>
+      <c r="BR25" s="9"/>
+      <c r="BS25" s="9"/>
+      <c r="BT25" s="9"/>
+      <c r="BU25" s="9"/>
+      <c r="BV25" s="9"/>
+      <c r="BW25" s="9"/>
+      <c r="BX25" s="9"/>
+      <c r="BY25" s="9"/>
+      <c r="BZ25" s="9"/>
+      <c r="CA25" s="9"/>
+      <c r="CB25" s="9"/>
+      <c r="CC25" s="9"/>
+      <c r="CD25" s="9"/>
+      <c r="CE25" s="9"/>
+      <c r="CF25" s="9"/>
     </row>
     <row r="26" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
-      <c r="AM26" s="8"/>
-      <c r="AN26" s="8"/>
-      <c r="AO26" s="8"/>
-      <c r="AP26" s="8"/>
-      <c r="AQ26" s="8"/>
-      <c r="AR26" s="8"/>
-      <c r="AS26" s="8"/>
-      <c r="AT26" s="8"/>
-      <c r="AU26" s="8"/>
-      <c r="AV26" s="8"/>
-      <c r="AW26" s="8"/>
-      <c r="AX26" s="8"/>
-      <c r="AY26" s="8"/>
-      <c r="AZ26" s="8"/>
-      <c r="BA26" s="8"/>
-      <c r="BB26" s="8"/>
-      <c r="BC26" s="8"/>
-      <c r="BD26" s="8"/>
-      <c r="BE26" s="8"/>
-      <c r="BF26" s="8"/>
-      <c r="BG26" s="8"/>
-      <c r="BH26" s="8"/>
-      <c r="BI26" s="8"/>
-      <c r="BJ26" s="8"/>
-      <c r="BK26" s="8"/>
-      <c r="BL26" s="8"/>
-      <c r="BM26" s="8"/>
-      <c r="BN26" s="8"/>
-      <c r="BO26" s="8"/>
-      <c r="BP26" s="8"/>
-      <c r="BQ26" s="8"/>
-      <c r="BR26" s="8"/>
-      <c r="BS26" s="8"/>
-      <c r="BT26" s="8"/>
-      <c r="BU26" s="8"/>
-      <c r="BV26" s="8"/>
-      <c r="BW26" s="8"/>
-      <c r="BX26" s="8"/>
-      <c r="BY26" s="8"/>
-      <c r="BZ26" s="8"/>
-      <c r="CA26" s="8"/>
-      <c r="CB26" s="8"/>
-      <c r="CC26" s="8"/>
-      <c r="CD26" s="8"/>
-      <c r="CE26" s="8"/>
-      <c r="CF26" s="8"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="9"/>
+      <c r="BH26" s="9"/>
+      <c r="BI26" s="9"/>
+      <c r="BJ26" s="9"/>
+      <c r="BK26" s="9"/>
+      <c r="BL26" s="9"/>
+      <c r="BM26" s="9"/>
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="9"/>
+      <c r="BP26" s="9"/>
+      <c r="BQ26" s="9"/>
+      <c r="BR26" s="9"/>
+      <c r="BS26" s="9"/>
+      <c r="BT26" s="9"/>
+      <c r="BU26" s="9"/>
+      <c r="BV26" s="9"/>
+      <c r="BW26" s="9"/>
+      <c r="BX26" s="9"/>
+      <c r="BY26" s="9"/>
+      <c r="BZ26" s="9"/>
+      <c r="CA26" s="9"/>
+      <c r="CB26" s="9"/>
+      <c r="CC26" s="9"/>
+      <c r="CD26" s="9"/>
+      <c r="CE26" s="9"/>
+      <c r="CF26" s="9"/>
     </row>
     <row r="27" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L27" s="21"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="10">
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="9">
         <v>1</v>
       </c>
-      <c r="Q27" s="10">
+      <c r="Q27" s="9">
         <v>2</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="9">
         <v>3</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S27" s="9">
         <v>4</v>
       </c>
-      <c r="T27" s="10">
+      <c r="T27" s="9">
         <v>5</v>
       </c>
-      <c r="U27" s="10">
+      <c r="U27" s="9">
         <v>6</v>
       </c>
-      <c r="V27" s="10">
+      <c r="V27" s="9">
         <v>7</v>
       </c>
-      <c r="W27" s="10">
+      <c r="W27" s="9">
         <v>8</v>
       </c>
-      <c r="X27" s="10">
+      <c r="X27" s="9">
         <v>9</v>
       </c>
-      <c r="Y27" s="10">
+      <c r="Y27" s="9">
         <v>10</v>
       </c>
-      <c r="Z27" s="10">
+      <c r="Z27" s="9">
         <v>11</v>
       </c>
-      <c r="AA27" s="10">
+      <c r="AA27" s="9">
         <v>12</v>
       </c>
-      <c r="AB27" s="10">
+      <c r="AB27" s="9">
         <v>13</v>
       </c>
-      <c r="AC27" s="10">
+      <c r="AC27" s="9">
         <v>14</v>
       </c>
-      <c r="AD27" s="10">
+      <c r="AD27" s="9">
         <v>15</v>
       </c>
-      <c r="AE27" s="10">
+      <c r="AE27" s="9">
         <v>16</v>
       </c>
-      <c r="AF27" s="10">
+      <c r="AF27" s="9">
         <v>17</v>
       </c>
-      <c r="AG27" s="10">
+      <c r="AG27" s="9">
         <v>18</v>
       </c>
-      <c r="AH27" s="10">
+      <c r="AH27" s="9">
         <v>19</v>
       </c>
-      <c r="AI27" s="10">
+      <c r="AI27" s="9">
         <v>20</v>
       </c>
-      <c r="AJ27" s="10">
+      <c r="AJ27" s="9">
         <v>21</v>
       </c>
-      <c r="AK27" s="10">
+      <c r="AK27" s="9">
         <v>22</v>
       </c>
-      <c r="AL27" s="10">
+      <c r="AL27" s="9">
         <v>23</v>
       </c>
-      <c r="AM27" s="10">
+      <c r="AM27" s="9">
         <v>24</v>
       </c>
-      <c r="AN27" s="10">
+      <c r="AN27" s="9">
         <v>25</v>
       </c>
-      <c r="AO27" s="10">
+      <c r="AO27" s="9">
         <v>26</v>
       </c>
-      <c r="AP27" s="10">
+      <c r="AP27" s="9">
         <v>27</v>
       </c>
-      <c r="AQ27" s="10">
+      <c r="AQ27" s="9">
         <v>28</v>
       </c>
-      <c r="AR27" s="10">
+      <c r="AR27" s="9">
         <v>29</v>
       </c>
-      <c r="AS27" s="10">
+      <c r="AS27" s="9">
         <v>30</v>
       </c>
-      <c r="AT27" s="10">
+      <c r="AT27" s="9">
         <v>31</v>
       </c>
-      <c r="AU27" s="10">
+      <c r="AU27" s="9">
         <v>32</v>
       </c>
-      <c r="AV27" s="10">
+      <c r="AV27" s="9">
         <v>33</v>
       </c>
-      <c r="AW27" s="10">
+      <c r="AW27" s="9">
         <v>34</v>
       </c>
-      <c r="AX27" s="10">
+      <c r="AX27" s="9">
         <v>35</v>
       </c>
-      <c r="AY27" s="10">
+      <c r="AY27" s="9">
         <v>36</v>
       </c>
-      <c r="AZ27" s="10">
+      <c r="AZ27" s="9">
         <v>37</v>
       </c>
-      <c r="BA27" s="10">
+      <c r="BA27" s="9">
         <v>38</v>
       </c>
-      <c r="BB27" s="10">
+      <c r="BB27" s="9">
         <v>39</v>
       </c>
-      <c r="BC27" s="10">
+      <c r="BC27" s="9">
         <v>40</v>
       </c>
-      <c r="BD27" s="10">
+      <c r="BD27" s="9">
         <v>41</v>
       </c>
-      <c r="BE27" s="10">
+      <c r="BE27" s="9">
         <v>42</v>
       </c>
-      <c r="BF27" s="10">
+      <c r="BF27" s="9">
         <v>43</v>
       </c>
-      <c r="BG27" s="10">
+      <c r="BG27" s="9">
         <v>44</v>
       </c>
-      <c r="BH27" s="10">
+      <c r="BH27" s="9">
         <v>45</v>
       </c>
-      <c r="BI27" s="10">
+      <c r="BI27" s="9">
         <v>46</v>
       </c>
-      <c r="BJ27" s="10">
+      <c r="BJ27" s="9">
         <v>47</v>
       </c>
-      <c r="BK27" s="10">
+      <c r="BK27" s="9">
         <v>48</v>
       </c>
-      <c r="BL27" s="10">
+      <c r="BL27" s="9">
         <v>49</v>
       </c>
-      <c r="BM27" s="10">
+      <c r="BM27" s="9">
         <v>50</v>
       </c>
-      <c r="BN27" s="10">
+      <c r="BN27" s="9">
         <v>51</v>
       </c>
-      <c r="BO27" s="10">
+      <c r="BO27" s="9">
         <v>52</v>
       </c>
-      <c r="BP27" s="10">
+      <c r="BP27" s="9">
         <v>53</v>
       </c>
-      <c r="BQ27" s="10">
+      <c r="BQ27" s="9">
         <v>54</v>
       </c>
-      <c r="BR27" s="10">
+      <c r="BR27" s="9">
         <v>55</v>
       </c>
-      <c r="BS27" s="10">
+      <c r="BS27" s="9">
         <v>56</v>
       </c>
-      <c r="BT27" s="10">
+      <c r="BT27" s="9">
         <v>57</v>
       </c>
-      <c r="BU27" s="10">
+      <c r="BU27" s="9">
         <v>58</v>
       </c>
-      <c r="BV27" s="10">
+      <c r="BV27" s="9">
         <v>59</v>
       </c>
-      <c r="BW27" s="10">
+      <c r="BW27" s="9">
         <v>60</v>
       </c>
-      <c r="BX27" s="10">
+      <c r="BX27" s="9">
         <v>61</v>
       </c>
-      <c r="BY27" s="10">
+      <c r="BY27" s="9">
         <v>62</v>
       </c>
-      <c r="BZ27" s="10">
+      <c r="BZ27" s="9">
         <v>63</v>
       </c>
-      <c r="CA27" s="10">
+      <c r="CA27" s="9">
         <v>64</v>
       </c>
-      <c r="CB27" s="10">
+      <c r="CB27" s="9">
         <v>65</v>
       </c>
-      <c r="CC27" s="10">
+      <c r="CC27" s="9">
         <v>66</v>
       </c>
-      <c r="CD27" s="10">
+      <c r="CD27" s="9">
         <v>67</v>
       </c>
-      <c r="CE27" s="10">
+      <c r="CE27" s="9">
         <v>68</v>
       </c>
-      <c r="CF27" s="10">
+      <c r="CF27" s="9">
         <v>69</v>
       </c>
+    </row>
+    <row r="29" spans="12:84" x14ac:dyDescent="0.3">
+      <c r="Q29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
     <mergeCell ref="L24:O27"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="Z29:AB29"/>
     <mergeCell ref="L4:O7"/>
     <mergeCell ref="L8:O11"/>
     <mergeCell ref="L12:O15"/>

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>O1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,50 @@
   </si>
   <si>
     <t>M3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -267,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -370,13 +414,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -419,6 +500,24 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,10 +557,58 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,26 +1489,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="L4:CF29"/>
+  <dimension ref="L4:CL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP35" sqref="AP35"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BV36" sqref="BV36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="15" width="2.77734375" style="6"/>
-    <col min="16" max="84" width="4.77734375" style="6" customWidth="1"/>
-    <col min="85" max="16384" width="2.77734375" style="6"/>
+    <col min="16" max="90" width="4.77734375" style="6" customWidth="1"/>
+    <col min="91" max="16384" width="2.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="12:84" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="14" t="s">
+    <row r="4" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="22"/>
       <c r="P4" s="9">
         <v>1</v>
       </c>
@@ -1569,12 +1716,30 @@
       <c r="CF4" s="9">
         <v>69</v>
       </c>
+      <c r="CG4" s="9">
+        <v>70</v>
+      </c>
+      <c r="CH4" s="9">
+        <v>71</v>
+      </c>
+      <c r="CI4" s="9">
+        <v>72</v>
+      </c>
+      <c r="CJ4" s="9">
+        <v>73</v>
+      </c>
+      <c r="CK4" s="9">
+        <v>74</v>
+      </c>
+      <c r="CL4" s="9">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
+    <row r="5" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1644,16 +1809,24 @@
       <c r="CD5" s="9"/>
       <c r="CE5" s="9"/>
       <c r="CF5" s="9"/>
+      <c r="CG5" s="9"/>
+      <c r="CH5" s="9"/>
+      <c r="CI5" s="9"/>
+      <c r="CJ5" s="9"/>
+      <c r="CK5" s="9"/>
+      <c r="CL5" s="9"/>
     </row>
-    <row r="6" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
+    <row r="6" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="Q6" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="41"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -1663,20 +1836,24 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
+      <c r="AC6" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="35"/>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9"/>
@@ -1688,43 +1865,55 @@
       <c r="AY6" s="9"/>
       <c r="AZ6" s="9"/>
       <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9"/>
+      <c r="BB6" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="50"/>
       <c r="BL6" s="9"/>
       <c r="BM6" s="9"/>
-      <c r="BN6" s="9"/>
-      <c r="BO6" s="9"/>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="9"/>
-      <c r="BR6" s="9"/>
-      <c r="BS6" s="9"/>
-      <c r="BT6" s="9"/>
-      <c r="BU6" s="9"/>
-      <c r="BV6" s="9"/>
-      <c r="BW6" s="9"/>
-      <c r="BX6" s="9"/>
-      <c r="BY6" s="9"/>
-      <c r="BZ6" s="9"/>
+      <c r="BN6" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
+      <c r="BQ6" s="37"/>
+      <c r="BR6" s="37"/>
+      <c r="BS6" s="37"/>
+      <c r="BT6" s="37"/>
+      <c r="BU6" s="37"/>
+      <c r="BV6" s="37"/>
+      <c r="BW6" s="38"/>
+      <c r="BX6" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="BY6" s="46"/>
+      <c r="BZ6" s="47"/>
       <c r="CA6" s="9"/>
       <c r="CB6" s="9"/>
       <c r="CC6" s="9"/>
       <c r="CD6" s="9"/>
       <c r="CE6" s="9"/>
       <c r="CF6" s="9"/>
+      <c r="CG6" s="9"/>
+      <c r="CH6" s="9"/>
+      <c r="CI6" s="9"/>
+      <c r="CJ6" s="9"/>
+      <c r="CK6" s="9"/>
+      <c r="CL6" s="9"/>
     </row>
-    <row r="7" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="22"/>
+    <row r="7" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
       <c r="P7" s="9">
         <v>1</v>
       </c>
@@ -1932,14 +2121,32 @@
       <c r="CF7" s="9">
         <v>69</v>
       </c>
+      <c r="CG7" s="9">
+        <v>70</v>
+      </c>
+      <c r="CH7" s="9">
+        <v>71</v>
+      </c>
+      <c r="CI7" s="9">
+        <v>72</v>
+      </c>
+      <c r="CJ7" s="9">
+        <v>73</v>
+      </c>
+      <c r="CK7" s="9">
+        <v>74</v>
+      </c>
+      <c r="CL7" s="9">
+        <v>75</v>
+      </c>
     </row>
-    <row r="8" spans="12:84" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="14" t="s">
+    <row r="8" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -2009,12 +2216,18 @@
       <c r="CD8" s="9"/>
       <c r="CE8" s="9"/>
       <c r="CF8" s="9"/>
+      <c r="CG8" s="9"/>
+      <c r="CH8" s="9"/>
+      <c r="CI8" s="9"/>
+      <c r="CJ8" s="9"/>
+      <c r="CK8" s="9"/>
+      <c r="CL8" s="9"/>
     </row>
-    <row r="9" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
+    <row r="9" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -2084,40 +2297,58 @@
       <c r="CD9" s="9"/>
       <c r="CE9" s="9"/>
       <c r="CF9" s="9"/>
+      <c r="CG9" s="9"/>
+      <c r="CH9" s="9"/>
+      <c r="CI9" s="9"/>
+      <c r="CJ9" s="9"/>
+      <c r="CK9" s="9"/>
+      <c r="CL9" s="9"/>
     </row>
-    <row r="10" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9"/>
+    <row r="10" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="50"/>
+      <c r="AF10" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="47"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
+      <c r="AQ10" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="AR10" s="9"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
@@ -2140,10 +2371,12 @@
       <c r="BK10" s="9"/>
       <c r="BL10" s="9"/>
       <c r="BM10" s="9"/>
-      <c r="BN10" s="9"/>
-      <c r="BO10" s="9"/>
-      <c r="BP10" s="9"/>
-      <c r="BQ10" s="9"/>
+      <c r="BN10" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="BO10" s="37"/>
+      <c r="BP10" s="37"/>
+      <c r="BQ10" s="38"/>
       <c r="BR10" s="9"/>
       <c r="BS10" s="9"/>
       <c r="BT10" s="9"/>
@@ -2159,12 +2392,18 @@
       <c r="CD10" s="9"/>
       <c r="CE10" s="9"/>
       <c r="CF10" s="9"/>
+      <c r="CG10" s="9"/>
+      <c r="CH10" s="9"/>
+      <c r="CI10" s="9"/>
+      <c r="CJ10" s="9"/>
+      <c r="CK10" s="9"/>
+      <c r="CL10" s="9"/>
     </row>
-    <row r="11" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="22"/>
+    <row r="11" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
       <c r="P11" s="9">
         <v>1</v>
       </c>
@@ -2372,14 +2611,32 @@
       <c r="CF11" s="9">
         <v>69</v>
       </c>
+      <c r="CG11" s="9">
+        <v>70</v>
+      </c>
+      <c r="CH11" s="9">
+        <v>71</v>
+      </c>
+      <c r="CI11" s="9">
+        <v>72</v>
+      </c>
+      <c r="CJ11" s="9">
+        <v>73</v>
+      </c>
+      <c r="CK11" s="9">
+        <v>74</v>
+      </c>
+      <c r="CL11" s="9">
+        <v>75</v>
+      </c>
     </row>
-    <row r="12" spans="12:84" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="14" t="s">
+    <row r="12" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="16"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -2449,12 +2706,18 @@
       <c r="CD12" s="9"/>
       <c r="CE12" s="9"/>
       <c r="CF12" s="9"/>
+      <c r="CG12" s="9"/>
+      <c r="CH12" s="9"/>
+      <c r="CI12" s="9"/>
+      <c r="CJ12" s="9"/>
+      <c r="CK12" s="9"/>
+      <c r="CL12" s="9"/>
     </row>
-    <row r="13" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="19"/>
+    <row r="13" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L13" s="23"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -2524,40 +2787,56 @@
       <c r="CD13" s="9"/>
       <c r="CE13" s="9"/>
       <c r="CF13" s="9"/>
+      <c r="CG13" s="9"/>
+      <c r="CH13" s="9"/>
+      <c r="CI13" s="9"/>
+      <c r="CJ13" s="9"/>
+      <c r="CK13" s="9"/>
+      <c r="CL13" s="9"/>
     </row>
-    <row r="14" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
+    <row r="14" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="47"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9"/>
-      <c r="AO14" s="9"/>
-      <c r="AP14" s="9"/>
-      <c r="AQ14" s="9"/>
+      <c r="AH14" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI14" s="43"/>
+      <c r="AJ14" s="43"/>
+      <c r="AK14" s="43"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN14" s="37"/>
+      <c r="AO14" s="37"/>
+      <c r="AP14" s="37"/>
+      <c r="AQ14" s="38"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
@@ -2578,7 +2857,9 @@
       <c r="BI14" s="9"/>
       <c r="BJ14" s="9"/>
       <c r="BK14" s="9"/>
-      <c r="BL14" s="9"/>
+      <c r="BL14" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="BM14" s="9"/>
       <c r="BN14" s="9"/>
       <c r="BO14" s="9"/>
@@ -2599,12 +2880,18 @@
       <c r="CD14" s="9"/>
       <c r="CE14" s="9"/>
       <c r="CF14" s="9"/>
+      <c r="CG14" s="9"/>
+      <c r="CH14" s="9"/>
+      <c r="CI14" s="9"/>
+      <c r="CJ14" s="9"/>
+      <c r="CK14" s="9"/>
+      <c r="CL14" s="9"/>
     </row>
-    <row r="15" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="22"/>
+    <row r="15" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L15" s="26"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="9">
         <v>1</v>
       </c>
@@ -2812,14 +3099,32 @@
       <c r="CF15" s="9">
         <v>69</v>
       </c>
+      <c r="CG15" s="9">
+        <v>70</v>
+      </c>
+      <c r="CH15" s="9">
+        <v>71</v>
+      </c>
+      <c r="CI15" s="9">
+        <v>72</v>
+      </c>
+      <c r="CJ15" s="9">
+        <v>73</v>
+      </c>
+      <c r="CK15" s="9">
+        <v>74</v>
+      </c>
+      <c r="CL15" s="9">
+        <v>75</v>
+      </c>
     </row>
-    <row r="16" spans="12:84" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="14" t="s">
+    <row r="16" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="22"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -2889,12 +3194,18 @@
       <c r="CD16" s="9"/>
       <c r="CE16" s="9"/>
       <c r="CF16" s="9"/>
+      <c r="CG16" s="9"/>
+      <c r="CH16" s="9"/>
+      <c r="CI16" s="9"/>
+      <c r="CJ16" s="9"/>
+      <c r="CK16" s="9"/>
+      <c r="CL16" s="9"/>
     </row>
-    <row r="17" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L17" s="17"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="19"/>
+    <row r="17" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="25"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -2964,22 +3275,30 @@
       <c r="CD17" s="9"/>
       <c r="CE17" s="9"/>
       <c r="CF17" s="9"/>
+      <c r="CG17" s="9"/>
+      <c r="CH17" s="9"/>
+      <c r="CI17" s="9"/>
+      <c r="CJ17" s="9"/>
+      <c r="CK17" s="9"/>
+      <c r="CL17" s="9"/>
     </row>
-    <row r="18" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
+    <row r="18" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="25"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
+      <c r="V18" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="35"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
@@ -2993,19 +3312,25 @@
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="9"/>
-      <c r="AT18" s="9"/>
-      <c r="AU18" s="9"/>
-      <c r="AV18" s="9"/>
-      <c r="AW18" s="9"/>
-      <c r="AX18" s="9"/>
-      <c r="AY18" s="9"/>
+      <c r="AM18" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN18" s="43"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT18" s="40"/>
+      <c r="AU18" s="40"/>
+      <c r="AV18" s="40"/>
+      <c r="AW18" s="40"/>
+      <c r="AX18" s="40"/>
+      <c r="AY18" s="41"/>
       <c r="AZ18" s="9"/>
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
@@ -3018,10 +3343,12 @@
       <c r="BI18" s="9"/>
       <c r="BJ18" s="9"/>
       <c r="BK18" s="9"/>
-      <c r="BL18" s="9"/>
-      <c r="BM18" s="9"/>
-      <c r="BN18" s="9"/>
-      <c r="BO18" s="9"/>
+      <c r="BL18" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM18" s="49"/>
+      <c r="BN18" s="49"/>
+      <c r="BO18" s="50"/>
       <c r="BP18" s="9"/>
       <c r="BQ18" s="9"/>
       <c r="BR18" s="9"/>
@@ -3033,18 +3360,26 @@
       <c r="BX18" s="9"/>
       <c r="BY18" s="9"/>
       <c r="BZ18" s="9"/>
-      <c r="CA18" s="9"/>
+      <c r="CA18" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="CB18" s="9"/>
       <c r="CC18" s="9"/>
       <c r="CD18" s="9"/>
       <c r="CE18" s="9"/>
       <c r="CF18" s="9"/>
+      <c r="CG18" s="9"/>
+      <c r="CH18" s="9"/>
+      <c r="CI18" s="9"/>
+      <c r="CJ18" s="9"/>
+      <c r="CK18" s="9"/>
+      <c r="CL18" s="9"/>
     </row>
-    <row r="19" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L19" s="20"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="22"/>
+    <row r="19" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
       <c r="P19" s="9">
         <v>1</v>
       </c>
@@ -3252,14 +3587,32 @@
       <c r="CF19" s="9">
         <v>69</v>
       </c>
+      <c r="CG19" s="9">
+        <v>70</v>
+      </c>
+      <c r="CH19" s="9">
+        <v>71</v>
+      </c>
+      <c r="CI19" s="9">
+        <v>72</v>
+      </c>
+      <c r="CJ19" s="9">
+        <v>73</v>
+      </c>
+      <c r="CK19" s="9">
+        <v>74</v>
+      </c>
+      <c r="CL19" s="9">
+        <v>75</v>
+      </c>
     </row>
-    <row r="20" spans="12:84" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="14" t="s">
+    <row r="20" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -3329,12 +3682,18 @@
       <c r="CD20" s="9"/>
       <c r="CE20" s="9"/>
       <c r="CF20" s="9"/>
+      <c r="CG20" s="9"/>
+      <c r="CH20" s="9"/>
+      <c r="CI20" s="9"/>
+      <c r="CJ20" s="9"/>
+      <c r="CK20" s="9"/>
+      <c r="CL20" s="9"/>
     </row>
-    <row r="21" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L21" s="17"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="19"/>
+    <row r="21" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L21" s="23"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="25"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -3404,12 +3763,18 @@
       <c r="CD21" s="9"/>
       <c r="CE21" s="9"/>
       <c r="CF21" s="9"/>
+      <c r="CG21" s="9"/>
+      <c r="CH21" s="9"/>
+      <c r="CI21" s="9"/>
+      <c r="CJ21" s="9"/>
+      <c r="CK21" s="9"/>
+      <c r="CL21" s="9"/>
     </row>
-    <row r="22" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
+    <row r="22" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="25"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -3435,42 +3800,52 @@
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
-      <c r="BF22" s="9"/>
-      <c r="BG22" s="9"/>
-      <c r="BH22" s="9"/>
-      <c r="BI22" s="9"/>
-      <c r="BJ22" s="9"/>
-      <c r="BK22" s="9"/>
-      <c r="BL22" s="9"/>
-      <c r="BM22" s="9"/>
-      <c r="BN22" s="9"/>
-      <c r="BO22" s="9"/>
-      <c r="BP22" s="9"/>
-      <c r="BQ22" s="9"/>
-      <c r="BR22" s="9"/>
-      <c r="BS22" s="9"/>
-      <c r="BT22" s="9"/>
-      <c r="BU22" s="9"/>
-      <c r="BV22" s="9"/>
-      <c r="BW22" s="9"/>
-      <c r="BX22" s="9"/>
+      <c r="AO22" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="46"/>
+      <c r="AS22" s="47"/>
+      <c r="AT22" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU22" s="37"/>
+      <c r="AV22" s="37"/>
+      <c r="AW22" s="37"/>
+      <c r="AX22" s="37"/>
+      <c r="AY22" s="37"/>
+      <c r="AZ22" s="37"/>
+      <c r="BA22" s="37"/>
+      <c r="BB22" s="37"/>
+      <c r="BC22" s="38"/>
+      <c r="BD22" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE22" s="43"/>
+      <c r="BF22" s="43"/>
+      <c r="BG22" s="43"/>
+      <c r="BH22" s="43"/>
+      <c r="BI22" s="43"/>
+      <c r="BJ22" s="43"/>
+      <c r="BK22" s="44"/>
+      <c r="BL22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM22" s="34"/>
+      <c r="BN22" s="34"/>
+      <c r="BO22" s="34"/>
+      <c r="BP22" s="34"/>
+      <c r="BQ22" s="34"/>
+      <c r="BR22" s="35"/>
+      <c r="BS22" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="BT22" s="40"/>
+      <c r="BU22" s="40"/>
+      <c r="BV22" s="40"/>
+      <c r="BW22" s="40"/>
+      <c r="BX22" s="41"/>
       <c r="BY22" s="9"/>
       <c r="BZ22" s="9"/>
       <c r="CA22" s="9"/>
@@ -3479,12 +3854,18 @@
       <c r="CD22" s="9"/>
       <c r="CE22" s="9"/>
       <c r="CF22" s="9"/>
+      <c r="CG22" s="9"/>
+      <c r="CH22" s="9"/>
+      <c r="CI22" s="9"/>
+      <c r="CJ22" s="9"/>
+      <c r="CK22" s="9"/>
+      <c r="CL22" s="9"/>
     </row>
-    <row r="23" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L23" s="20"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="22"/>
+    <row r="23" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L23" s="26"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="28"/>
       <c r="P23" s="9">
         <v>1</v>
       </c>
@@ -3692,14 +4073,32 @@
       <c r="CF23" s="9">
         <v>69</v>
       </c>
+      <c r="CG23" s="9">
+        <v>70</v>
+      </c>
+      <c r="CH23" s="9">
+        <v>71</v>
+      </c>
+      <c r="CI23" s="9">
+        <v>72</v>
+      </c>
+      <c r="CJ23" s="9">
+        <v>73</v>
+      </c>
+      <c r="CK23" s="9">
+        <v>74</v>
+      </c>
+      <c r="CL23" s="9">
+        <v>75</v>
+      </c>
     </row>
-    <row r="24" spans="12:84" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="14" t="s">
+    <row r="24" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="16"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="22"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -3769,12 +4168,18 @@
       <c r="CD24" s="9"/>
       <c r="CE24" s="9"/>
       <c r="CF24" s="9"/>
+      <c r="CG24" s="9"/>
+      <c r="CH24" s="9"/>
+      <c r="CI24" s="9"/>
+      <c r="CJ24" s="9"/>
+      <c r="CK24" s="9"/>
+      <c r="CL24" s="9"/>
     </row>
-    <row r="25" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L25" s="17"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="19"/>
+    <row r="25" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -3844,12 +4249,18 @@
       <c r="CD25" s="9"/>
       <c r="CE25" s="9"/>
       <c r="CF25" s="9"/>
+      <c r="CG25" s="9"/>
+      <c r="CH25" s="9"/>
+      <c r="CI25" s="9"/>
+      <c r="CJ25" s="9"/>
+      <c r="CK25" s="9"/>
+      <c r="CL25" s="9"/>
     </row>
-    <row r="26" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L26" s="17"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="19"/>
+    <row r="26" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L26" s="23"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="25"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -3860,14 +4271,16 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
+      <c r="Z26" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="35"/>
       <c r="AH26" s="9"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
@@ -3879,52 +4292,68 @@
       <c r="AP26" s="9"/>
       <c r="AQ26" s="9"/>
       <c r="AR26" s="9"/>
-      <c r="AS26" s="9"/>
-      <c r="AT26" s="9"/>
-      <c r="AU26" s="9"/>
-      <c r="AV26" s="9"/>
-      <c r="AW26" s="9"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="9"/>
-      <c r="BA26" s="9"/>
+      <c r="AS26" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="49"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="49"/>
+      <c r="BA26" s="50"/>
       <c r="BB26" s="9"/>
       <c r="BC26" s="9"/>
-      <c r="BD26" s="9"/>
-      <c r="BE26" s="9"/>
-      <c r="BF26" s="9"/>
-      <c r="BG26" s="9"/>
-      <c r="BH26" s="9"/>
-      <c r="BI26" s="9"/>
-      <c r="BJ26" s="9"/>
-      <c r="BK26" s="9"/>
-      <c r="BL26" s="9"/>
-      <c r="BM26" s="9"/>
-      <c r="BN26" s="9"/>
-      <c r="BO26" s="9"/>
-      <c r="BP26" s="9"/>
-      <c r="BQ26" s="9"/>
-      <c r="BR26" s="9"/>
-      <c r="BS26" s="9"/>
-      <c r="BT26" s="9"/>
-      <c r="BU26" s="9"/>
-      <c r="BV26" s="9"/>
-      <c r="BW26" s="9"/>
-      <c r="BX26" s="9"/>
-      <c r="BY26" s="9"/>
-      <c r="BZ26" s="9"/>
-      <c r="CA26" s="9"/>
-      <c r="CB26" s="9"/>
-      <c r="CC26" s="9"/>
+      <c r="BD26" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE26" s="37"/>
+      <c r="BF26" s="37"/>
+      <c r="BG26" s="37"/>
+      <c r="BH26" s="37"/>
+      <c r="BI26" s="37"/>
+      <c r="BJ26" s="37"/>
+      <c r="BK26" s="37"/>
+      <c r="BL26" s="37"/>
+      <c r="BM26" s="38"/>
+      <c r="BN26" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO26" s="40"/>
+      <c r="BP26" s="41"/>
+      <c r="BQ26" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="BR26" s="46"/>
+      <c r="BS26" s="46"/>
+      <c r="BT26" s="47"/>
+      <c r="BU26" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV26" s="43"/>
+      <c r="BW26" s="43"/>
+      <c r="BX26" s="43"/>
+      <c r="BY26" s="43"/>
+      <c r="BZ26" s="43"/>
+      <c r="CA26" s="43"/>
+      <c r="CB26" s="43"/>
+      <c r="CC26" s="44"/>
       <c r="CD26" s="9"/>
       <c r="CE26" s="9"/>
       <c r="CF26" s="9"/>
+      <c r="CG26" s="9"/>
+      <c r="CH26" s="9"/>
+      <c r="CI26" s="9"/>
+      <c r="CJ26" s="9"/>
+      <c r="CK26" s="9"/>
+      <c r="CL26" s="9"/>
     </row>
-    <row r="27" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="L27" s="20"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="22"/>
+    <row r="27" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="28"/>
       <c r="P27" s="9">
         <v>1</v>
       </c>
@@ -4132,41 +4561,96 @@
       <c r="CF27" s="9">
         <v>69</v>
       </c>
+      <c r="CG27" s="9">
+        <v>70</v>
+      </c>
+      <c r="CH27" s="9">
+        <v>71</v>
+      </c>
+      <c r="CI27" s="9">
+        <v>72</v>
+      </c>
+      <c r="CJ27" s="9">
+        <v>73</v>
+      </c>
+      <c r="CK27" s="9">
+        <v>74</v>
+      </c>
+      <c r="CL27" s="9">
+        <v>75</v>
+      </c>
     </row>
-    <row r="29" spans="12:84" x14ac:dyDescent="0.3">
-      <c r="Q29" s="23" t="s">
+    <row r="29" spans="12:90" x14ac:dyDescent="0.3">
+      <c r="Q29" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="24" t="s">
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="25" t="s">
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="26" t="s">
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="27" t="s">
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="28" t="s">
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="44">
+    <mergeCell ref="BX6:BZ6"/>
+    <mergeCell ref="AH6:AP6"/>
+    <mergeCell ref="BN10:BQ10"/>
+    <mergeCell ref="BU26:CC26"/>
+    <mergeCell ref="BL22:BR22"/>
+    <mergeCell ref="BS22:BX22"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="BD26:BM26"/>
+    <mergeCell ref="BB6:BK6"/>
+    <mergeCell ref="BL18:BO18"/>
+    <mergeCell ref="BD22:BK22"/>
+    <mergeCell ref="AS18:AY18"/>
+    <mergeCell ref="BN26:BP26"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="BN6:BW6"/>
+    <mergeCell ref="BQ26:BT26"/>
+    <mergeCell ref="AM18:AO18"/>
+    <mergeCell ref="AO22:AS22"/>
+    <mergeCell ref="AP18:AR18"/>
+    <mergeCell ref="AS26:BA26"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="AT22:BC22"/>
+    <mergeCell ref="AH14:AL14"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AF10:AK10"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="P10:W10"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="L4:O7"/>
+    <mergeCell ref="L8:O11"/>
+    <mergeCell ref="L12:O15"/>
+    <mergeCell ref="L16:O19"/>
+    <mergeCell ref="L20:O23"/>
     <mergeCell ref="AC29:AE29"/>
     <mergeCell ref="AF29:AH29"/>
     <mergeCell ref="L24:O27"/>
@@ -4174,13 +4658,9 @@
     <mergeCell ref="T29:V29"/>
     <mergeCell ref="W29:Y29"/>
     <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="L4:O7"/>
-    <mergeCell ref="L8:O11"/>
-    <mergeCell ref="L12:O15"/>
-    <mergeCell ref="L16:O19"/>
-    <mergeCell ref="L20:O23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Table.xlsx
+++ b/Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
   <si>
     <t>O1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,19 +211,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>J6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>J4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>J3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,45 +514,99 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,60 +617,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1491,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L4:CL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BV36" sqref="BV36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS18" sqref="AS18:AY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1503,12 +1511,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="22"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
       <c r="P4" s="9">
         <v>1</v>
       </c>
@@ -1736,10 +1744,10 @@
       </c>
     </row>
     <row r="5" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1817,16 +1825,16 @@
       <c r="CL5" s="9"/>
     </row>
     <row r="6" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L6" s="23"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="25"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="39" t="s">
+      <c r="Q6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="41"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -1836,66 +1844,66 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="42" t="s">
+      <c r="AC6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="33" t="s">
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="34"/>
-      <c r="AP6" s="35"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="23"/>
       <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="BC6" s="49"/>
-      <c r="BD6" s="49"/>
-      <c r="BE6" s="49"/>
-      <c r="BF6" s="49"/>
-      <c r="BG6" s="49"/>
-      <c r="BH6" s="49"/>
-      <c r="BI6" s="49"/>
-      <c r="BJ6" s="49"/>
-      <c r="BK6" s="50"/>
+      <c r="AR6" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS6" s="34"/>
+      <c r="AT6" s="34"/>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="35"/>
+      <c r="BB6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="9"/>
       <c r="BL6" s="9"/>
       <c r="BM6" s="9"/>
-      <c r="BN6" s="36" t="s">
+      <c r="BN6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="BO6" s="37"/>
-      <c r="BP6" s="37"/>
-      <c r="BQ6" s="37"/>
-      <c r="BR6" s="37"/>
-      <c r="BS6" s="37"/>
-      <c r="BT6" s="37"/>
-      <c r="BU6" s="37"/>
-      <c r="BV6" s="37"/>
-      <c r="BW6" s="38"/>
-      <c r="BX6" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="BY6" s="46"/>
-      <c r="BZ6" s="47"/>
+      <c r="BO6" s="25"/>
+      <c r="BP6" s="25"/>
+      <c r="BQ6" s="25"/>
+      <c r="BR6" s="25"/>
+      <c r="BS6" s="25"/>
+      <c r="BT6" s="25"/>
+      <c r="BU6" s="25"/>
+      <c r="BV6" s="25"/>
+      <c r="BW6" s="26"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
+      <c r="BZ6" s="9"/>
       <c r="CA6" s="9"/>
       <c r="CB6" s="9"/>
       <c r="CC6" s="9"/>
@@ -1910,10 +1918,10 @@
       <c r="CL6" s="9"/>
     </row>
     <row r="7" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
       <c r="P7" s="9">
         <v>1</v>
       </c>
@@ -2141,12 +2149,12 @@
       </c>
     </row>
     <row r="8" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="38"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -2224,10 +2232,10 @@
       <c r="CL8" s="9"/>
     </row>
     <row r="9" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L9" s="23"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -2305,45 +2313,45 @@
       <c r="CL9" s="9"/>
     </row>
     <row r="10" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L10" s="23"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="36" t="s">
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="42" t="s">
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="48" t="s">
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="39" t="s">
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="40"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="40"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="45" t="s">
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AM10" s="46"/>
-      <c r="AN10" s="47"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="20"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
       <c r="AQ10" s="15" t="s">
@@ -2371,12 +2379,10 @@
       <c r="BK10" s="9"/>
       <c r="BL10" s="9"/>
       <c r="BM10" s="9"/>
-      <c r="BN10" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="BO10" s="37"/>
-      <c r="BP10" s="37"/>
-      <c r="BQ10" s="38"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="9"/>
+      <c r="BP10" s="9"/>
+      <c r="BQ10" s="9"/>
       <c r="BR10" s="9"/>
       <c r="BS10" s="9"/>
       <c r="BT10" s="9"/>
@@ -2400,10 +2406,10 @@
       <c r="CL10" s="9"/>
     </row>
     <row r="11" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
       <c r="P11" s="9">
         <v>1</v>
       </c>
@@ -2631,12 +2637,12 @@
       </c>
     </row>
     <row r="12" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="22"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="38"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -2714,10 +2720,10 @@
       <c r="CL12" s="9"/>
     </row>
     <row r="13" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L13" s="23"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="25"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="41"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -2795,48 +2801,48 @@
       <c r="CL13" s="9"/>
     </row>
     <row r="14" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L14" s="23"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="25"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="41"/>
       <c r="P14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="33" t="s">
+      <c r="Q14" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="45" t="s">
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="47"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="20"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
-      <c r="AH14" s="42" t="s">
+      <c r="AH14" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AI14" s="43"/>
-      <c r="AJ14" s="43"/>
-      <c r="AK14" s="43"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="36" t="s">
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="38"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="26"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
@@ -2857,7 +2863,7 @@
       <c r="BI14" s="9"/>
       <c r="BJ14" s="9"/>
       <c r="BK14" s="9"/>
-      <c r="BL14" s="17" t="s">
+      <c r="BL14" s="16" t="s">
         <v>43</v>
       </c>
       <c r="BM14" s="9"/>
@@ -2888,10 +2894,10 @@
       <c r="CL14" s="9"/>
     </row>
     <row r="15" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L15" s="26"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
       <c r="P15" s="9">
         <v>1</v>
       </c>
@@ -3119,12 +3125,12 @@
       </c>
     </row>
     <row r="16" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="20" t="s">
+      <c r="L16" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="22"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -3202,10 +3208,10 @@
       <c r="CL16" s="9"/>
     </row>
     <row r="17" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="25"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -3283,72 +3289,72 @@
       <c r="CL17" s="9"/>
     </row>
     <row r="18" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L18" s="23"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="25"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="41"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="V18" s="33" t="s">
+      <c r="V18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="35"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="23"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
+      <c r="AF18" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="35"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
-      <c r="AM18" s="42" t="s">
+      <c r="AM18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AN18" s="43"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="39" t="s">
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AT18" s="40"/>
-      <c r="AU18" s="40"/>
-      <c r="AV18" s="40"/>
-      <c r="AW18" s="40"/>
-      <c r="AX18" s="40"/>
-      <c r="AY18" s="41"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="32"/>
       <c r="AZ18" s="9"/>
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
       <c r="BC18" s="9"/>
       <c r="BD18" s="9"/>
-      <c r="BE18" s="9"/>
+      <c r="BE18" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="BF18" s="9"/>
       <c r="BG18" s="9"/>
       <c r="BH18" s="9"/>
       <c r="BI18" s="9"/>
       <c r="BJ18" s="9"/>
       <c r="BK18" s="9"/>
-      <c r="BL18" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="BM18" s="49"/>
-      <c r="BN18" s="49"/>
-      <c r="BO18" s="50"/>
+      <c r="BL18" s="9"/>
+      <c r="BM18" s="9"/>
+      <c r="BN18" s="9"/>
+      <c r="BO18" s="9"/>
       <c r="BP18" s="9"/>
       <c r="BQ18" s="9"/>
       <c r="BR18" s="9"/>
@@ -3357,12 +3363,12 @@
       <c r="BU18" s="9"/>
       <c r="BV18" s="9"/>
       <c r="BW18" s="9"/>
-      <c r="BX18" s="9"/>
-      <c r="BY18" s="9"/>
-      <c r="BZ18" s="9"/>
-      <c r="CA18" s="16" t="s">
-        <v>48</v>
-      </c>
+      <c r="BX18" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="BY18" s="25"/>
+      <c r="BZ18" s="25"/>
+      <c r="CA18" s="26"/>
       <c r="CB18" s="9"/>
       <c r="CC18" s="9"/>
       <c r="CD18" s="9"/>
@@ -3376,10 +3382,10 @@
       <c r="CL18" s="9"/>
     </row>
     <row r="19" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
       <c r="P19" s="9">
         <v>1</v>
       </c>
@@ -3607,12 +3613,12 @@
       </c>
     </row>
     <row r="20" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="38"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -3690,10 +3696,10 @@
       <c r="CL20" s="9"/>
     </row>
     <row r="21" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L21" s="23"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="41"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -3771,10 +3777,10 @@
       <c r="CL21" s="9"/>
     </row>
     <row r="22" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L22" s="23"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="25"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -3800,52 +3806,52 @@
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
-      <c r="AO22" s="45" t="s">
+      <c r="AO22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AP22" s="46"/>
-      <c r="AQ22" s="46"/>
-      <c r="AR22" s="46"/>
-      <c r="AS22" s="47"/>
-      <c r="AT22" s="36" t="s">
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AU22" s="37"/>
-      <c r="AV22" s="37"/>
-      <c r="AW22" s="37"/>
-      <c r="AX22" s="37"/>
-      <c r="AY22" s="37"/>
-      <c r="AZ22" s="37"/>
-      <c r="BA22" s="37"/>
-      <c r="BB22" s="37"/>
-      <c r="BC22" s="38"/>
-      <c r="BD22" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE22" s="43"/>
-      <c r="BF22" s="43"/>
-      <c r="BG22" s="43"/>
-      <c r="BH22" s="43"/>
-      <c r="BI22" s="43"/>
-      <c r="BJ22" s="43"/>
-      <c r="BK22" s="44"/>
-      <c r="BL22" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM22" s="34"/>
-      <c r="BN22" s="34"/>
-      <c r="BO22" s="34"/>
-      <c r="BP22" s="34"/>
-      <c r="BQ22" s="34"/>
-      <c r="BR22" s="35"/>
-      <c r="BS22" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="BT22" s="40"/>
-      <c r="BU22" s="40"/>
-      <c r="BV22" s="40"/>
-      <c r="BW22" s="40"/>
-      <c r="BX22" s="41"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="25"/>
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="25"/>
+      <c r="AY22" s="25"/>
+      <c r="AZ22" s="25"/>
+      <c r="BA22" s="25"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE22" s="34"/>
+      <c r="BF22" s="34"/>
+      <c r="BG22" s="35"/>
+      <c r="BH22" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI22" s="28"/>
+      <c r="BJ22" s="28"/>
+      <c r="BK22" s="28"/>
+      <c r="BL22" s="28"/>
+      <c r="BM22" s="28"/>
+      <c r="BN22" s="28"/>
+      <c r="BO22" s="29"/>
+      <c r="BP22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ22" s="22"/>
+      <c r="BR22" s="22"/>
+      <c r="BS22" s="22"/>
+      <c r="BT22" s="22"/>
+      <c r="BU22" s="22"/>
+      <c r="BV22" s="23"/>
+      <c r="BW22" s="9"/>
+      <c r="BX22" s="9"/>
       <c r="BY22" s="9"/>
       <c r="BZ22" s="9"/>
       <c r="CA22" s="9"/>
@@ -3862,10 +3868,10 @@
       <c r="CL22" s="9"/>
     </row>
     <row r="23" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L23" s="26"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="28"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="44"/>
       <c r="P23" s="9">
         <v>1</v>
       </c>
@@ -4093,12 +4099,12 @@
       </c>
     </row>
     <row r="24" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="20" t="s">
+      <c r="L24" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="22"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -4176,10 +4182,10 @@
       <c r="CL24" s="9"/>
     </row>
     <row r="25" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L25" s="23"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="41"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -4257,10 +4263,10 @@
       <c r="CL25" s="9"/>
     </row>
     <row r="26" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L26" s="23"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="25"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="41"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -4271,74 +4277,74 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
-      <c r="Z26" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="35"/>
+      <c r="Z26" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="23"/>
       <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9"/>
-      <c r="AO26" s="9"/>
-      <c r="AP26" s="9"/>
-      <c r="AQ26" s="9"/>
+      <c r="AI26" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="35"/>
       <c r="AR26" s="9"/>
-      <c r="AS26" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT26" s="49"/>
-      <c r="AU26" s="49"/>
-      <c r="AV26" s="49"/>
-      <c r="AW26" s="49"/>
-      <c r="AX26" s="49"/>
-      <c r="AY26" s="49"/>
-      <c r="AZ26" s="49"/>
-      <c r="BA26" s="50"/>
-      <c r="BB26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU26" s="19"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="20"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA26" s="31"/>
+      <c r="BB26" s="32"/>
       <c r="BC26" s="9"/>
-      <c r="BD26" s="36" t="s">
+      <c r="BD26" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="BE26" s="37"/>
-      <c r="BF26" s="37"/>
-      <c r="BG26" s="37"/>
-      <c r="BH26" s="37"/>
-      <c r="BI26" s="37"/>
-      <c r="BJ26" s="37"/>
-      <c r="BK26" s="37"/>
-      <c r="BL26" s="37"/>
-      <c r="BM26" s="38"/>
-      <c r="BN26" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO26" s="40"/>
-      <c r="BP26" s="41"/>
-      <c r="BQ26" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="BR26" s="46"/>
-      <c r="BS26" s="46"/>
-      <c r="BT26" s="47"/>
-      <c r="BU26" s="42" t="s">
+      <c r="BE26" s="25"/>
+      <c r="BF26" s="25"/>
+      <c r="BG26" s="25"/>
+      <c r="BH26" s="25"/>
+      <c r="BI26" s="25"/>
+      <c r="BJ26" s="25"/>
+      <c r="BK26" s="25"/>
+      <c r="BL26" s="25"/>
+      <c r="BM26" s="26"/>
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="9"/>
+      <c r="BP26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="BV26" s="43"/>
-      <c r="BW26" s="43"/>
-      <c r="BX26" s="43"/>
-      <c r="BY26" s="43"/>
-      <c r="BZ26" s="43"/>
-      <c r="CA26" s="43"/>
-      <c r="CB26" s="43"/>
-      <c r="CC26" s="44"/>
+      <c r="BQ26" s="28"/>
+      <c r="BR26" s="28"/>
+      <c r="BS26" s="28"/>
+      <c r="BT26" s="28"/>
+      <c r="BU26" s="28"/>
+      <c r="BV26" s="28"/>
+      <c r="BW26" s="28"/>
+      <c r="BX26" s="29"/>
+      <c r="BY26" s="9"/>
+      <c r="BZ26" s="9"/>
+      <c r="CA26" s="9"/>
+      <c r="CB26" s="9"/>
+      <c r="CC26" s="9"/>
       <c r="CD26" s="9"/>
       <c r="CE26" s="9"/>
       <c r="CF26" s="9"/>
@@ -4350,10 +4356,10 @@
       <c r="CL26" s="9"/>
     </row>
     <row r="27" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="44"/>
       <c r="P27" s="9">
         <v>1</v>
       </c>
@@ -4581,74 +4587,41 @@
       </c>
     </row>
     <row r="29" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="Q29" s="29" t="s">
+      <c r="Q29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="30" t="s">
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="31" t="s">
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="32" t="s">
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="18" t="s">
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="19" t="s">
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="BX6:BZ6"/>
-    <mergeCell ref="AH6:AP6"/>
-    <mergeCell ref="BN10:BQ10"/>
-    <mergeCell ref="BU26:CC26"/>
-    <mergeCell ref="BL22:BR22"/>
-    <mergeCell ref="BS22:BX22"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="BD26:BM26"/>
-    <mergeCell ref="BB6:BK6"/>
-    <mergeCell ref="BL18:BO18"/>
-    <mergeCell ref="BD22:BK22"/>
-    <mergeCell ref="AS18:AY18"/>
-    <mergeCell ref="BN26:BP26"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="BN6:BW6"/>
-    <mergeCell ref="BQ26:BT26"/>
-    <mergeCell ref="AM18:AO18"/>
-    <mergeCell ref="AO22:AS22"/>
-    <mergeCell ref="AP18:AR18"/>
-    <mergeCell ref="AS26:BA26"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="AT22:BC22"/>
-    <mergeCell ref="AH14:AL14"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AF10:AK10"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="P10:W10"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="L4:O7"/>
-    <mergeCell ref="L8:O11"/>
-    <mergeCell ref="L12:O15"/>
+  <mergeCells count="43">
+    <mergeCell ref="BP26:BX26"/>
+    <mergeCell ref="BP22:BV22"/>
     <mergeCell ref="L16:O19"/>
     <mergeCell ref="L20:O23"/>
     <mergeCell ref="AC29:AE29"/>
@@ -4658,6 +4631,38 @@
     <mergeCell ref="T29:V29"/>
     <mergeCell ref="W29:Y29"/>
     <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="L4:O7"/>
+    <mergeCell ref="L8:O11"/>
+    <mergeCell ref="L12:O15"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AF10:AK10"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="P10:W10"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="BD26:BM26"/>
+    <mergeCell ref="AS18:AY18"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="BN6:BW6"/>
+    <mergeCell ref="AM18:AO18"/>
+    <mergeCell ref="AO22:AS22"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="AT22:BC22"/>
+    <mergeCell ref="AH6:AP6"/>
+    <mergeCell ref="AH14:AL14"/>
+    <mergeCell ref="AI26:AQ26"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BD22:BG22"/>
+    <mergeCell ref="BH22:BO22"/>
+    <mergeCell ref="AZ26:BB26"/>
+    <mergeCell ref="AT26:AW26"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="BX18:CA18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t>O1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,31 +207,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>J6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>J3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J3</t>
+    <t>M1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,16 +504,97 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,15 +606,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,78 +613,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1499,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L4:CL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS18" sqref="AS18:AY18"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CU29" sqref="CU29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1511,243 +1507,93 @@
   </cols>
   <sheetData>
     <row r="4" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>2</v>
-      </c>
-      <c r="R4" s="9">
-        <v>3</v>
-      </c>
-      <c r="S4" s="9">
-        <v>4</v>
-      </c>
-      <c r="T4" s="9">
-        <v>5</v>
-      </c>
-      <c r="U4" s="9">
-        <v>6</v>
-      </c>
-      <c r="V4" s="9">
-        <v>7</v>
-      </c>
-      <c r="W4" s="9">
-        <v>8</v>
-      </c>
-      <c r="X4" s="9">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="9">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="9">
-        <v>11</v>
-      </c>
-      <c r="AA4" s="9">
-        <v>12</v>
-      </c>
-      <c r="AB4" s="9">
-        <v>13</v>
-      </c>
-      <c r="AC4" s="9">
-        <v>14</v>
-      </c>
-      <c r="AD4" s="9">
-        <v>15</v>
-      </c>
-      <c r="AE4" s="9">
-        <v>16</v>
-      </c>
-      <c r="AF4" s="9">
-        <v>17</v>
-      </c>
-      <c r="AG4" s="9">
-        <v>18</v>
-      </c>
-      <c r="AH4" s="9">
-        <v>19</v>
-      </c>
-      <c r="AI4" s="9">
-        <v>20</v>
-      </c>
-      <c r="AJ4" s="9">
-        <v>21</v>
-      </c>
-      <c r="AK4" s="9">
-        <v>22</v>
-      </c>
-      <c r="AL4" s="9">
-        <v>23</v>
-      </c>
-      <c r="AM4" s="9">
-        <v>24</v>
-      </c>
-      <c r="AN4" s="9">
-        <v>25</v>
-      </c>
-      <c r="AO4" s="9">
-        <v>26</v>
-      </c>
-      <c r="AP4" s="9">
-        <v>27</v>
-      </c>
-      <c r="AQ4" s="9">
-        <v>28</v>
-      </c>
-      <c r="AR4" s="9">
-        <v>29</v>
-      </c>
-      <c r="AS4" s="9">
-        <v>30</v>
-      </c>
-      <c r="AT4" s="9">
-        <v>31</v>
-      </c>
-      <c r="AU4" s="9">
-        <v>32</v>
-      </c>
-      <c r="AV4" s="9">
-        <v>33</v>
-      </c>
-      <c r="AW4" s="9">
-        <v>34</v>
-      </c>
-      <c r="AX4" s="9">
-        <v>35</v>
-      </c>
-      <c r="AY4" s="9">
-        <v>36</v>
-      </c>
-      <c r="AZ4" s="9">
-        <v>37</v>
-      </c>
-      <c r="BA4" s="9">
-        <v>38</v>
-      </c>
-      <c r="BB4" s="9">
-        <v>39</v>
-      </c>
-      <c r="BC4" s="9">
-        <v>40</v>
-      </c>
-      <c r="BD4" s="9">
-        <v>41</v>
-      </c>
-      <c r="BE4" s="9">
-        <v>42</v>
-      </c>
-      <c r="BF4" s="9">
-        <v>43</v>
-      </c>
-      <c r="BG4" s="9">
-        <v>44</v>
-      </c>
-      <c r="BH4" s="9">
-        <v>45</v>
-      </c>
-      <c r="BI4" s="9">
-        <v>46</v>
-      </c>
-      <c r="BJ4" s="9">
-        <v>47</v>
-      </c>
-      <c r="BK4" s="9">
-        <v>48</v>
-      </c>
-      <c r="BL4" s="9">
-        <v>49</v>
-      </c>
-      <c r="BM4" s="9">
+      <c r="L4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="BN4" s="9">
-        <v>51</v>
-      </c>
-      <c r="BO4" s="9">
-        <v>52</v>
-      </c>
-      <c r="BP4" s="9">
-        <v>53</v>
-      </c>
-      <c r="BQ4" s="9">
-        <v>54</v>
-      </c>
-      <c r="BR4" s="9">
-        <v>55</v>
-      </c>
-      <c r="BS4" s="9">
-        <v>56</v>
-      </c>
-      <c r="BT4" s="9">
-        <v>57</v>
-      </c>
-      <c r="BU4" s="9">
-        <v>58</v>
-      </c>
-      <c r="BV4" s="9">
-        <v>59</v>
-      </c>
-      <c r="BW4" s="9">
-        <v>60</v>
-      </c>
-      <c r="BX4" s="9">
-        <v>61</v>
-      </c>
-      <c r="BY4" s="9">
-        <v>62</v>
-      </c>
-      <c r="BZ4" s="9">
-        <v>63</v>
-      </c>
-      <c r="CA4" s="9">
-        <v>64</v>
-      </c>
-      <c r="CB4" s="9">
-        <v>65</v>
-      </c>
-      <c r="CC4" s="9">
-        <v>66</v>
-      </c>
-      <c r="CD4" s="9">
-        <v>67</v>
-      </c>
-      <c r="CE4" s="9">
-        <v>68</v>
-      </c>
-      <c r="CF4" s="9">
-        <v>69</v>
-      </c>
-      <c r="CG4" s="9">
-        <v>70</v>
-      </c>
-      <c r="CH4" s="9">
-        <v>71</v>
-      </c>
-      <c r="CI4" s="9">
-        <v>72</v>
-      </c>
-      <c r="CJ4" s="9">
-        <v>73</v>
-      </c>
-      <c r="CK4" s="9">
-        <v>74</v>
-      </c>
-      <c r="CL4" s="9">
-        <v>75</v>
-      </c>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="9"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="9"/>
+      <c r="BP4" s="9"/>
+      <c r="BQ4" s="9"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
+      <c r="BT4" s="9"/>
+      <c r="BU4" s="9"/>
+      <c r="BV4" s="9"/>
+      <c r="BW4" s="9"/>
+      <c r="BX4" s="9"/>
+      <c r="BY4" s="9"/>
+      <c r="BZ4" s="9"/>
+      <c r="CA4" s="9"/>
+      <c r="CB4" s="9"/>
+      <c r="CC4" s="9"/>
+      <c r="CD4" s="9"/>
+      <c r="CE4" s="9"/>
+      <c r="CF4" s="9"/>
+      <c r="CG4" s="9"/>
+      <c r="CH4" s="9"/>
+      <c r="CI4" s="9"/>
+      <c r="CJ4" s="9"/>
+      <c r="CK4" s="9"/>
+      <c r="CL4" s="9"/>
     </row>
     <row r="5" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="41"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1825,16 +1671,16 @@
       <c r="CL5" s="9"/>
     </row>
     <row r="6" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L6" s="39"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="41"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="32"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="44"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -1844,44 +1690,44 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="27" t="s">
+      <c r="AC6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="21" t="s">
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS6" s="34"/>
-      <c r="AT6" s="34"/>
-      <c r="AU6" s="34"/>
-      <c r="AV6" s="34"/>
-      <c r="AW6" s="34"/>
-      <c r="AX6" s="34"/>
-      <c r="AY6" s="34"/>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="35"/>
-      <c r="BB6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="23"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE6" s="46"/>
+      <c r="BF6" s="47"/>
       <c r="BG6" s="9"/>
       <c r="BH6" s="9"/>
       <c r="BI6" s="9"/>
@@ -1889,18 +1735,18 @@
       <c r="BK6" s="9"/>
       <c r="BL6" s="9"/>
       <c r="BM6" s="9"/>
-      <c r="BN6" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="BO6" s="25"/>
-      <c r="BP6" s="25"/>
-      <c r="BQ6" s="25"/>
-      <c r="BR6" s="25"/>
-      <c r="BS6" s="25"/>
-      <c r="BT6" s="25"/>
-      <c r="BU6" s="25"/>
-      <c r="BV6" s="25"/>
-      <c r="BW6" s="26"/>
+      <c r="BN6" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
+      <c r="BQ6" s="49"/>
+      <c r="BR6" s="49"/>
+      <c r="BS6" s="49"/>
+      <c r="BT6" s="49"/>
+      <c r="BU6" s="49"/>
+      <c r="BV6" s="49"/>
+      <c r="BW6" s="50"/>
       <c r="BX6" s="9"/>
       <c r="BY6" s="9"/>
       <c r="BZ6" s="9"/>
@@ -1918,10 +1764,10 @@
       <c r="CL6" s="9"/>
     </row>
     <row r="7" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="44"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
       <c r="P7" s="9">
         <v>1</v>
       </c>
@@ -2149,12 +1995,12 @@
       </c>
     </row>
     <row r="8" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -2232,10 +2078,10 @@
       <c r="CL8" s="9"/>
     </row>
     <row r="9" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="41"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="29"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -2313,50 +2159,48 @@
       <c r="CL9" s="9"/>
     </row>
     <row r="10" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L10" s="39"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="24" t="s">
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="27" t="s">
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="33" t="s">
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="30" t="s">
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="18" t="s">
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="20"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="47"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
@@ -2367,7 +2211,9 @@
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
       <c r="BA10" s="9"/>
-      <c r="BB10" s="9"/>
+      <c r="BB10" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="BC10" s="9"/>
       <c r="BD10" s="9"/>
       <c r="BE10" s="9"/>
@@ -2406,10 +2252,10 @@
       <c r="CL10" s="9"/>
     </row>
     <row r="11" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L11" s="42"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
       <c r="P11" s="9">
         <v>1</v>
       </c>
@@ -2637,12 +2483,12 @@
       </c>
     </row>
     <row r="12" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -2720,10 +2566,10 @@
       <c r="CL12" s="9"/>
     </row>
     <row r="13" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L13" s="39"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="41"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -2801,11 +2647,11 @@
       <c r="CL13" s="9"/>
     </row>
     <row r="14" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L14" s="39"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="14" t="s">
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="16" t="s">
         <v>39</v>
       </c>
       <c r="Q14" s="21" t="s">
@@ -2815,34 +2661,34 @@
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="23"/>
-      <c r="V14" s="18" t="s">
+      <c r="V14" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="20"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="47"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
-      <c r="AH14" s="27" t="s">
+      <c r="AH14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="26"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="49"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="50"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
@@ -2859,13 +2705,13 @@
       <c r="BE14" s="9"/>
       <c r="BF14" s="9"/>
       <c r="BG14" s="9"/>
-      <c r="BH14" s="9"/>
+      <c r="BH14" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="BI14" s="9"/>
       <c r="BJ14" s="9"/>
       <c r="BK14" s="9"/>
-      <c r="BL14" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="BL14" s="9"/>
       <c r="BM14" s="9"/>
       <c r="BN14" s="9"/>
       <c r="BO14" s="9"/>
@@ -2894,10 +2740,10 @@
       <c r="CL14" s="9"/>
     </row>
     <row r="15" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L15" s="42"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
       <c r="P15" s="9">
         <v>1</v>
       </c>
@@ -3125,12 +2971,12 @@
       </c>
     </row>
     <row r="16" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -3208,10 +3054,10 @@
       <c r="CL16" s="9"/>
     </row>
     <row r="17" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L17" s="39"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="41"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -3289,10 +3135,10 @@
       <c r="CL17" s="9"/>
     </row>
     <row r="18" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="41"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="29"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
@@ -3311,42 +3157,42 @@
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
-      <c r="AF18" s="33" t="s">
+      <c r="AF18" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="35"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="41"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
-      <c r="AM18" s="27" t="s">
+      <c r="AM18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="9"/>
-      <c r="AQ18" s="9"/>
-      <c r="AR18" s="9"/>
-      <c r="AS18" s="30" t="s">
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="20"/>
+      <c r="AP18" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="32"/>
+      <c r="AQ18" s="43"/>
+      <c r="AR18" s="43"/>
+      <c r="AS18" s="43"/>
+      <c r="AT18" s="43"/>
+      <c r="AU18" s="43"/>
+      <c r="AV18" s="44"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
       <c r="AZ18" s="9"/>
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
       <c r="BC18" s="9"/>
       <c r="BD18" s="9"/>
-      <c r="BE18" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="BE18" s="9"/>
       <c r="BF18" s="9"/>
-      <c r="BG18" s="9"/>
+      <c r="BG18" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="BH18" s="9"/>
       <c r="BI18" s="9"/>
       <c r="BJ18" s="9"/>
@@ -3363,12 +3209,12 @@
       <c r="BU18" s="9"/>
       <c r="BV18" s="9"/>
       <c r="BW18" s="9"/>
-      <c r="BX18" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="BY18" s="25"/>
-      <c r="BZ18" s="25"/>
-      <c r="CA18" s="26"/>
+      <c r="BX18" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY18" s="49"/>
+      <c r="BZ18" s="49"/>
+      <c r="CA18" s="50"/>
       <c r="CB18" s="9"/>
       <c r="CC18" s="9"/>
       <c r="CD18" s="9"/>
@@ -3382,10 +3228,10 @@
       <c r="CL18" s="9"/>
     </row>
     <row r="19" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L19" s="42"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="44"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
       <c r="P19" s="9">
         <v>1</v>
       </c>
@@ -3613,12 +3459,12 @@
       </c>
     </row>
     <row r="20" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="38"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="26"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -3696,10 +3542,10 @@
       <c r="CL20" s="9"/>
     </row>
     <row r="21" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L21" s="39"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="41"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -3777,10 +3623,10 @@
       <c r="CL21" s="9"/>
     </row>
     <row r="22" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L22" s="39"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="41"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -3806,43 +3652,43 @@
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
-      <c r="AO22" s="18" t="s">
+      <c r="AO22" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AP22" s="19"/>
-      <c r="AQ22" s="19"/>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="20"/>
-      <c r="AT22" s="24" t="s">
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="46"/>
+      <c r="AS22" s="47"/>
+      <c r="AT22" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="AU22" s="25"/>
-      <c r="AV22" s="25"/>
-      <c r="AW22" s="25"/>
-      <c r="AX22" s="25"/>
-      <c r="AY22" s="25"/>
-      <c r="AZ22" s="25"/>
-      <c r="BA22" s="25"/>
-      <c r="BB22" s="25"/>
-      <c r="BC22" s="26"/>
-      <c r="BD22" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE22" s="34"/>
-      <c r="BF22" s="34"/>
-      <c r="BG22" s="35"/>
-      <c r="BH22" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="BI22" s="28"/>
-      <c r="BJ22" s="28"/>
-      <c r="BK22" s="28"/>
-      <c r="BL22" s="28"/>
-      <c r="BM22" s="28"/>
-      <c r="BN22" s="28"/>
-      <c r="BO22" s="29"/>
+      <c r="AU22" s="49"/>
+      <c r="AV22" s="49"/>
+      <c r="AW22" s="49"/>
+      <c r="AX22" s="49"/>
+      <c r="AY22" s="49"/>
+      <c r="AZ22" s="49"/>
+      <c r="BA22" s="49"/>
+      <c r="BB22" s="49"/>
+      <c r="BC22" s="50"/>
+      <c r="BD22" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE22" s="40"/>
+      <c r="BF22" s="40"/>
+      <c r="BG22" s="41"/>
+      <c r="BH22" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI22" s="19"/>
+      <c r="BJ22" s="19"/>
+      <c r="BK22" s="19"/>
+      <c r="BL22" s="19"/>
+      <c r="BM22" s="19"/>
+      <c r="BN22" s="19"/>
+      <c r="BO22" s="20"/>
       <c r="BP22" s="21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="BQ22" s="22"/>
       <c r="BR22" s="22"/>
@@ -3850,12 +3696,14 @@
       <c r="BT22" s="22"/>
       <c r="BU22" s="22"/>
       <c r="BV22" s="23"/>
-      <c r="BW22" s="9"/>
-      <c r="BX22" s="9"/>
-      <c r="BY22" s="9"/>
-      <c r="BZ22" s="9"/>
-      <c r="CA22" s="9"/>
-      <c r="CB22" s="9"/>
+      <c r="BW22" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX22" s="43"/>
+      <c r="BY22" s="43"/>
+      <c r="BZ22" s="43"/>
+      <c r="CA22" s="43"/>
+      <c r="CB22" s="44"/>
       <c r="CC22" s="9"/>
       <c r="CD22" s="9"/>
       <c r="CE22" s="9"/>
@@ -3868,10 +3716,10 @@
       <c r="CL22" s="9"/>
     </row>
     <row r="23" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L23" s="42"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="44"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
       <c r="P23" s="9">
         <v>1</v>
       </c>
@@ -4099,12 +3947,12 @@
       </c>
     </row>
     <row r="24" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="36" t="s">
+      <c r="L24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="26"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -4182,10 +4030,10 @@
       <c r="CL24" s="9"/>
     </row>
     <row r="25" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L25" s="39"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="41"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="29"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -4263,10 +4111,10 @@
       <c r="CL25" s="9"/>
     </row>
     <row r="26" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L26" s="39"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="41"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="29"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -4278,7 +4126,7 @@
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AA26" s="22"/>
       <c r="AB26" s="22"/>
@@ -4288,58 +4136,58 @@
       <c r="AF26" s="22"/>
       <c r="AG26" s="23"/>
       <c r="AH26" s="9"/>
-      <c r="AI26" s="33" t="s">
+      <c r="AI26" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="34"/>
-      <c r="AM26" s="34"/>
-      <c r="AN26" s="34"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="34"/>
-      <c r="AQ26" s="35"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="40"/>
+      <c r="AL26" s="40"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="40"/>
+      <c r="AO26" s="40"/>
+      <c r="AP26" s="40"/>
+      <c r="AQ26" s="41"/>
       <c r="AR26" s="9"/>
       <c r="AS26" s="9"/>
-      <c r="AT26" s="18" t="s">
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="9"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX26" s="43"/>
+      <c r="AY26" s="44"/>
+      <c r="AZ26" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AU26" s="19"/>
-      <c r="AV26" s="19"/>
-      <c r="AW26" s="20"/>
-      <c r="AX26" s="9"/>
-      <c r="AY26" s="9"/>
-      <c r="AZ26" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="BA26" s="31"/>
-      <c r="BB26" s="32"/>
-      <c r="BC26" s="9"/>
-      <c r="BD26" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE26" s="25"/>
-      <c r="BF26" s="25"/>
-      <c r="BG26" s="25"/>
-      <c r="BH26" s="25"/>
-      <c r="BI26" s="25"/>
-      <c r="BJ26" s="25"/>
-      <c r="BK26" s="25"/>
-      <c r="BL26" s="25"/>
-      <c r="BM26" s="26"/>
+      <c r="BA26" s="46"/>
+      <c r="BB26" s="46"/>
+      <c r="BC26" s="47"/>
+      <c r="BD26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="49"/>
+      <c r="BM26" s="50"/>
       <c r="BN26" s="9"/>
       <c r="BO26" s="9"/>
-      <c r="BP26" s="27" t="s">
+      <c r="BP26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="BQ26" s="28"/>
-      <c r="BR26" s="28"/>
-      <c r="BS26" s="28"/>
-      <c r="BT26" s="28"/>
-      <c r="BU26" s="28"/>
-      <c r="BV26" s="28"/>
-      <c r="BW26" s="28"/>
-      <c r="BX26" s="29"/>
+      <c r="BQ26" s="19"/>
+      <c r="BR26" s="19"/>
+      <c r="BS26" s="19"/>
+      <c r="BT26" s="19"/>
+      <c r="BU26" s="19"/>
+      <c r="BV26" s="19"/>
+      <c r="BW26" s="19"/>
+      <c r="BX26" s="20"/>
       <c r="BY26" s="9"/>
       <c r="BZ26" s="9"/>
       <c r="CA26" s="9"/>
@@ -4356,10 +4204,10 @@
       <c r="CL26" s="9"/>
     </row>
     <row r="27" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L27" s="42"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="44"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="32"/>
       <c r="P27" s="9">
         <v>1</v>
       </c>
@@ -4587,39 +4435,70 @@
       </c>
     </row>
     <row r="29" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="Q29" s="47" t="s">
+      <c r="Q29" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="48" t="s">
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="49" t="s">
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="50" t="s">
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="AA29" s="50"/>
-      <c r="AB29" s="50"/>
-      <c r="AC29" s="45" t="s">
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="46" t="s">
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="44">
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="AS6:BA6"/>
+    <mergeCell ref="BW22:CB22"/>
+    <mergeCell ref="BN6:BW6"/>
+    <mergeCell ref="AM18:AO18"/>
+    <mergeCell ref="AO22:AS22"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="AT22:BC22"/>
+    <mergeCell ref="AH14:AL14"/>
+    <mergeCell ref="BD22:BG22"/>
+    <mergeCell ref="BH22:BO22"/>
+    <mergeCell ref="AI6:AR6"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="P10:W10"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="BD26:BM26"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="AI26:AQ26"/>
+    <mergeCell ref="AP18:AV18"/>
+    <mergeCell ref="AW26:AY26"/>
+    <mergeCell ref="AZ26:BC26"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="L4:O7"/>
+    <mergeCell ref="L8:O11"/>
+    <mergeCell ref="L12:O15"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AF10:AK10"/>
     <mergeCell ref="BP26:BX26"/>
     <mergeCell ref="BP22:BV22"/>
     <mergeCell ref="L16:O19"/>
@@ -4632,36 +4511,6 @@
     <mergeCell ref="W29:Y29"/>
     <mergeCell ref="Z29:AB29"/>
     <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="L4:O7"/>
-    <mergeCell ref="L8:O11"/>
-    <mergeCell ref="L12:O15"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AF10:AK10"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="P10:W10"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="BD26:BM26"/>
-    <mergeCell ref="AS18:AY18"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="BN6:BW6"/>
-    <mergeCell ref="AM18:AO18"/>
-    <mergeCell ref="AO22:AS22"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="AT22:BC22"/>
-    <mergeCell ref="AH6:AP6"/>
-    <mergeCell ref="AH14:AL14"/>
-    <mergeCell ref="AI26:AQ26"/>
-    <mergeCell ref="AR6:BA6"/>
-    <mergeCell ref="BD22:BG22"/>
-    <mergeCell ref="BH22:BO22"/>
-    <mergeCell ref="AZ26:BB26"/>
-    <mergeCell ref="AT26:AW26"/>
-    <mergeCell ref="BB6:BD6"/>
     <mergeCell ref="BX18:CA18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing.Huang\Videos\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Videos\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970461EF-1C30-4704-805B-ACCA146914CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="範例1_1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>O1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,23 +208,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>J3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>J2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>J2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -234,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -504,115 +493,115 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:BA20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1492,11 +1481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="L4:CL29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CU29" sqref="CU29"/>
+      <selection activeCell="L4" sqref="L4:CL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1507,12 +1496,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26"/>
+      <c r="L4" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -1590,10 +1579,10 @@
       <c r="CL4" s="9"/>
     </row>
     <row r="5" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -1671,16 +1660,16 @@
       <c r="CL5" s="9"/>
     </row>
     <row r="6" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="29"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="42" t="s">
+      <c r="Q6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="26"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -1690,44 +1679,44 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="18" t="s">
+      <c r="AC6" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-      <c r="AX6" s="22"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="22"/>
-      <c r="BA6" s="23"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS6" s="34"/>
+      <c r="AT6" s="34"/>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="35"/>
       <c r="BB6" s="9"/>
       <c r="BC6" s="9"/>
-      <c r="BD6" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="47"/>
+      <c r="BD6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="20"/>
       <c r="BG6" s="9"/>
       <c r="BH6" s="9"/>
       <c r="BI6" s="9"/>
@@ -1735,18 +1724,18 @@
       <c r="BK6" s="9"/>
       <c r="BL6" s="9"/>
       <c r="BM6" s="9"/>
-      <c r="BN6" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="BO6" s="49"/>
-      <c r="BP6" s="49"/>
-      <c r="BQ6" s="49"/>
-      <c r="BR6" s="49"/>
-      <c r="BS6" s="49"/>
-      <c r="BT6" s="49"/>
-      <c r="BU6" s="49"/>
-      <c r="BV6" s="49"/>
-      <c r="BW6" s="50"/>
+      <c r="BN6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO6" s="28"/>
+      <c r="BP6" s="28"/>
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="28"/>
+      <c r="BS6" s="28"/>
+      <c r="BT6" s="28"/>
+      <c r="BU6" s="28"/>
+      <c r="BV6" s="28"/>
+      <c r="BW6" s="29"/>
       <c r="BX6" s="9"/>
       <c r="BY6" s="9"/>
       <c r="BZ6" s="9"/>
@@ -1764,10 +1753,10 @@
       <c r="CL6" s="9"/>
     </row>
     <row r="7" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="32"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
       <c r="P7" s="9">
         <v>1</v>
       </c>
@@ -1995,12 +1984,12 @@
       </c>
     </row>
     <row r="8" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="38"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -2078,10 +2067,10 @@
       <c r="CL8" s="9"/>
     </row>
     <row r="9" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L9" s="27"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="29"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -2159,48 +2148,50 @@
       <c r="CL9" s="9"/>
     </row>
     <row r="10" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="48" t="s">
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="18" t="s">
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="39" t="s">
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="42" t="s">
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="43"/>
-      <c r="AI10" s="43"/>
-      <c r="AJ10" s="43"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="45" t="s">
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AM10" s="46"/>
-      <c r="AN10" s="47"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="20"/>
       <c r="AO10" s="9"/>
       <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
+      <c r="AQ10" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="AR10" s="9"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
@@ -2211,9 +2202,7 @@
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
       <c r="BA10" s="9"/>
-      <c r="BB10" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="BB10" s="9"/>
       <c r="BC10" s="9"/>
       <c r="BD10" s="9"/>
       <c r="BE10" s="9"/>
@@ -2252,10 +2241,10 @@
       <c r="CL10" s="9"/>
     </row>
     <row r="11" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
       <c r="P11" s="9">
         <v>1</v>
       </c>
@@ -2483,12 +2472,12 @@
       </c>
     </row>
     <row r="12" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="26"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="38"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
@@ -2566,10 +2555,10 @@
       <c r="CL12" s="9"/>
     </row>
     <row r="13" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L13" s="27"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="29"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="41"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
@@ -2647,11 +2636,11 @@
       <c r="CL13" s="9"/>
     </row>
     <row r="14" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="16" t="s">
+      <c r="L14" s="39"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="14" t="s">
         <v>39</v>
       </c>
       <c r="Q14" s="21" t="s">
@@ -2661,34 +2650,34 @@
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
       <c r="U14" s="23"/>
-      <c r="V14" s="45" t="s">
+      <c r="V14" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="47"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="20"/>
       <c r="AE14" s="9"/>
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
-      <c r="AH14" s="18" t="s">
+      <c r="AH14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="49"/>
-      <c r="AP14" s="49"/>
-      <c r="AQ14" s="50"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="31"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN14" s="28"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="29"/>
       <c r="AR14" s="9"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
@@ -2705,8 +2694,8 @@
       <c r="BE14" s="9"/>
       <c r="BF14" s="9"/>
       <c r="BG14" s="9"/>
-      <c r="BH14" s="15" t="s">
-        <v>49</v>
+      <c r="BH14" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="BI14" s="9"/>
       <c r="BJ14" s="9"/>
@@ -2740,10 +2729,10 @@
       <c r="CL14" s="9"/>
     </row>
     <row r="15" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="32"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
       <c r="P15" s="9">
         <v>1</v>
       </c>
@@ -2971,12 +2960,12 @@
       </c>
     </row>
     <row r="16" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="26"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
@@ -3054,10 +3043,10 @@
       <c r="CL16" s="9"/>
     </row>
     <row r="17" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
@@ -3135,10 +3124,10 @@
       <c r="CL17" s="9"/>
     </row>
     <row r="18" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="41"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
@@ -3157,29 +3146,29 @@
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
-      <c r="AF18" s="39" t="s">
+      <c r="AF18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="41"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="35"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
       <c r="AL18" s="9"/>
-      <c r="AM18" s="18" t="s">
+      <c r="AM18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="20"/>
-      <c r="AP18" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ18" s="43"/>
-      <c r="AR18" s="43"/>
-      <c r="AS18" s="43"/>
-      <c r="AT18" s="43"/>
-      <c r="AU18" s="43"/>
-      <c r="AV18" s="44"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="26"/>
       <c r="AW18" s="9"/>
       <c r="AX18" s="9"/>
       <c r="AY18" s="9"/>
@@ -3190,8 +3179,8 @@
       <c r="BD18" s="9"/>
       <c r="BE18" s="9"/>
       <c r="BF18" s="9"/>
-      <c r="BG18" s="14" t="s">
-        <v>44</v>
+      <c r="BG18" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="BH18" s="9"/>
       <c r="BI18" s="9"/>
@@ -3209,12 +3198,12 @@
       <c r="BU18" s="9"/>
       <c r="BV18" s="9"/>
       <c r="BW18" s="9"/>
-      <c r="BX18" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="BY18" s="49"/>
-      <c r="BZ18" s="49"/>
-      <c r="CA18" s="50"/>
+      <c r="BX18" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY18" s="28"/>
+      <c r="BZ18" s="28"/>
+      <c r="CA18" s="29"/>
       <c r="CB18" s="9"/>
       <c r="CC18" s="9"/>
       <c r="CD18" s="9"/>
@@ -3228,10 +3217,10 @@
       <c r="CL18" s="9"/>
     </row>
     <row r="19" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
       <c r="P19" s="9">
         <v>1</v>
       </c>
@@ -3459,12 +3448,12 @@
       </c>
     </row>
     <row r="20" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="26"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="38"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
@@ -3542,10 +3531,10 @@
       <c r="CL20" s="9"/>
     </row>
     <row r="21" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="29"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="41"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
@@ -3623,10 +3612,10 @@
       <c r="CL21" s="9"/>
     </row>
     <row r="22" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="29"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="41"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
@@ -3652,43 +3641,43 @@
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
-      <c r="AO22" s="45" t="s">
+      <c r="AO22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AP22" s="46"/>
-      <c r="AQ22" s="46"/>
-      <c r="AR22" s="46"/>
-      <c r="AS22" s="47"/>
-      <c r="AT22" s="48" t="s">
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AU22" s="49"/>
-      <c r="AV22" s="49"/>
-      <c r="AW22" s="49"/>
-      <c r="AX22" s="49"/>
-      <c r="AY22" s="49"/>
-      <c r="AZ22" s="49"/>
-      <c r="BA22" s="49"/>
-      <c r="BB22" s="49"/>
-      <c r="BC22" s="50"/>
-      <c r="BD22" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="BE22" s="40"/>
-      <c r="BF22" s="40"/>
-      <c r="BG22" s="41"/>
-      <c r="BH22" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="BI22" s="19"/>
-      <c r="BJ22" s="19"/>
-      <c r="BK22" s="19"/>
-      <c r="BL22" s="19"/>
-      <c r="BM22" s="19"/>
-      <c r="BN22" s="19"/>
-      <c r="BO22" s="20"/>
+      <c r="AU22" s="28"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="28"/>
+      <c r="AX22" s="28"/>
+      <c r="AY22" s="28"/>
+      <c r="AZ22" s="28"/>
+      <c r="BA22" s="28"/>
+      <c r="BB22" s="28"/>
+      <c r="BC22" s="29"/>
+      <c r="BD22" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE22" s="34"/>
+      <c r="BF22" s="34"/>
+      <c r="BG22" s="35"/>
+      <c r="BH22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI22" s="31"/>
+      <c r="BJ22" s="31"/>
+      <c r="BK22" s="31"/>
+      <c r="BL22" s="31"/>
+      <c r="BM22" s="31"/>
+      <c r="BN22" s="31"/>
+      <c r="BO22" s="32"/>
       <c r="BP22" s="21" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="BQ22" s="22"/>
       <c r="BR22" s="22"/>
@@ -3696,14 +3685,14 @@
       <c r="BT22" s="22"/>
       <c r="BU22" s="22"/>
       <c r="BV22" s="23"/>
-      <c r="BW22" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX22" s="43"/>
-      <c r="BY22" s="43"/>
-      <c r="BZ22" s="43"/>
-      <c r="CA22" s="43"/>
-      <c r="CB22" s="44"/>
+      <c r="BW22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX22" s="25"/>
+      <c r="BY22" s="25"/>
+      <c r="BZ22" s="25"/>
+      <c r="CA22" s="25"/>
+      <c r="CB22" s="26"/>
       <c r="CC22" s="9"/>
       <c r="CD22" s="9"/>
       <c r="CE22" s="9"/>
@@ -3716,10 +3705,10 @@
       <c r="CL22" s="9"/>
     </row>
     <row r="23" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L23" s="30"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="32"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="44"/>
       <c r="P23" s="9">
         <v>1</v>
       </c>
@@ -3947,12 +3936,12 @@
       </c>
     </row>
     <row r="24" spans="12:90" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="26"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
@@ -4030,10 +4019,10 @@
       <c r="CL24" s="9"/>
     </row>
     <row r="25" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="29"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="41"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
@@ -4111,10 +4100,10 @@
       <c r="CL25" s="9"/>
     </row>
     <row r="26" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="29"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="41"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
@@ -4126,7 +4115,7 @@
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="21" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AA26" s="22"/>
       <c r="AB26" s="22"/>
@@ -4136,58 +4125,58 @@
       <c r="AF26" s="22"/>
       <c r="AG26" s="23"/>
       <c r="AH26" s="9"/>
-      <c r="AI26" s="39" t="s">
+      <c r="AI26" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="40"/>
-      <c r="AQ26" s="41"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="35"/>
       <c r="AR26" s="9"/>
       <c r="AS26" s="9"/>
       <c r="AT26" s="9"/>
       <c r="AU26" s="9"/>
       <c r="AV26" s="9"/>
-      <c r="AW26" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX26" s="43"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA26" s="46"/>
-      <c r="BB26" s="46"/>
-      <c r="BC26" s="47"/>
-      <c r="BD26" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE26" s="49"/>
-      <c r="BF26" s="49"/>
-      <c r="BG26" s="49"/>
-      <c r="BH26" s="49"/>
-      <c r="BI26" s="49"/>
-      <c r="BJ26" s="49"/>
-      <c r="BK26" s="49"/>
-      <c r="BL26" s="49"/>
-      <c r="BM26" s="50"/>
+      <c r="AW26" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX26" s="25"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA26" s="19"/>
+      <c r="BB26" s="19"/>
+      <c r="BC26" s="20"/>
+      <c r="BD26" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="BE26" s="28"/>
+      <c r="BF26" s="28"/>
+      <c r="BG26" s="28"/>
+      <c r="BH26" s="28"/>
+      <c r="BI26" s="28"/>
+      <c r="BJ26" s="28"/>
+      <c r="BK26" s="28"/>
+      <c r="BL26" s="28"/>
+      <c r="BM26" s="29"/>
       <c r="BN26" s="9"/>
       <c r="BO26" s="9"/>
-      <c r="BP26" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="BQ26" s="19"/>
-      <c r="BR26" s="19"/>
-      <c r="BS26" s="19"/>
-      <c r="BT26" s="19"/>
-      <c r="BU26" s="19"/>
-      <c r="BV26" s="19"/>
-      <c r="BW26" s="19"/>
-      <c r="BX26" s="20"/>
+      <c r="BP26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ26" s="31"/>
+      <c r="BR26" s="31"/>
+      <c r="BS26" s="31"/>
+      <c r="BT26" s="31"/>
+      <c r="BU26" s="31"/>
+      <c r="BV26" s="31"/>
+      <c r="BW26" s="31"/>
+      <c r="BX26" s="32"/>
       <c r="BY26" s="9"/>
       <c r="BZ26" s="9"/>
       <c r="CA26" s="9"/>
@@ -4204,10 +4193,10 @@
       <c r="CL26" s="9"/>
     </row>
     <row r="27" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="32"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="44"/>
       <c r="P27" s="9">
         <v>1</v>
       </c>
@@ -4435,70 +4424,39 @@
       </c>
     </row>
     <row r="29" spans="12:90" x14ac:dyDescent="0.3">
-      <c r="Q29" s="35" t="s">
+      <c r="Q29" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="36" t="s">
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="37" t="s">
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="38" t="s">
+      <c r="X29" s="49"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="33" t="s">
+      <c r="AA29" s="50"/>
+      <c r="AB29" s="50"/>
+      <c r="AC29" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="34" t="s">
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="45"/>
+      <c r="AF29" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="AS6:BA6"/>
-    <mergeCell ref="BW22:CB22"/>
-    <mergeCell ref="BN6:BW6"/>
-    <mergeCell ref="AM18:AO18"/>
-    <mergeCell ref="AO22:AS22"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="AT22:BC22"/>
-    <mergeCell ref="AH14:AL14"/>
-    <mergeCell ref="BD22:BG22"/>
-    <mergeCell ref="BH22:BO22"/>
-    <mergeCell ref="AI6:AR6"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="P10:W10"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="BD26:BM26"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="AI26:AQ26"/>
-    <mergeCell ref="AP18:AV18"/>
-    <mergeCell ref="AW26:AY26"/>
-    <mergeCell ref="AZ26:BC26"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="L4:O7"/>
-    <mergeCell ref="L8:O11"/>
-    <mergeCell ref="L12:O15"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AF10:AK10"/>
     <mergeCell ref="BP26:BX26"/>
     <mergeCell ref="BP22:BV22"/>
     <mergeCell ref="L16:O19"/>
@@ -4512,6 +4470,37 @@
     <mergeCell ref="Z29:AB29"/>
     <mergeCell ref="AF18:AH18"/>
     <mergeCell ref="BX18:CA18"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="L4:O7"/>
+    <mergeCell ref="L8:O11"/>
+    <mergeCell ref="L12:O15"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AF10:AK10"/>
+    <mergeCell ref="AH6:AP6"/>
+    <mergeCell ref="P10:W10"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="BD26:BM26"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="AI26:AQ26"/>
+    <mergeCell ref="AP18:AV18"/>
+    <mergeCell ref="AW26:AY26"/>
+    <mergeCell ref="AZ26:BC26"/>
+    <mergeCell ref="AH14:AL14"/>
+    <mergeCell ref="BD22:BG22"/>
+    <mergeCell ref="BH22:BO22"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AR6:BA6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BW22:CB22"/>
+    <mergeCell ref="BN6:BW6"/>
+    <mergeCell ref="AM18:AO18"/>
+    <mergeCell ref="AO22:AS22"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="AT22:BC22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table.xlsx
+++ b/Table.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Videos\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970461EF-1C30-4704-805B-ACCA146914CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AC1F3E-96FA-42FB-9F6B-5DB5D3EB2262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="範例1_1" sheetId="1" r:id="rId1"/>
     <sheet name="範例1_3" sheetId="3" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1484,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="L4:CL29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:CL27"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AZ33" sqref="AZ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4506,4 +4507,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AD47A9-766B-4239-BB86-475673961A95}">
+  <dimension ref="L3:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="12:17" x14ac:dyDescent="0.3">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>